--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802385.67244901</v>
+        <v>1801850.329570774</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17877251.54001549</v>
+        <v>17877251.5400155</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132856.9736957361</v>
+        <v>132856.973695736</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6214982.635729387</v>
+        <v>6214982.635729386</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>48.22336283889912</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>225.4439185569814</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -797,7 +797,7 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W3" t="n">
         <v>183.4695267241379</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>125.1283924253889</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>164.2052151494649</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,7 +949,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>99.7456156562132</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>207.247385943387</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>118.140066752752</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>43.1188546397717</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.486350610225</v>
+        <v>97.28432793960798</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>259.4061102418216</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>158.6432084214282</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1378,7 +1378,7 @@
         <v>418.2824188047977</v>
       </c>
       <c r="E11" t="n">
-        <v>416.1687292207874</v>
+        <v>416.1687292207856</v>
       </c>
       <c r="F11" t="n">
         <v>410.3204871223821</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21414879022375</v>
+        <v>66.21414879022377</v>
       </c>
       <c r="T11" t="n">
         <v>203.9580261631844</v>
       </c>
       <c r="U11" t="n">
-        <v>243.3501105489622</v>
+        <v>243.3501105489628</v>
       </c>
       <c r="V11" t="n">
         <v>345.7225123930095</v>
@@ -1548,7 +1548,7 @@
         <v>124.6515700213292</v>
       </c>
       <c r="I13" t="n">
-        <v>72.53207139197613</v>
+        <v>72.53207139197586</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.985402631712043</v>
+        <v>4.985402631711331</v>
       </c>
       <c r="S13" t="n">
-        <v>143.2373190996777</v>
+        <v>143.2373190996778</v>
       </c>
       <c r="T13" t="n">
-        <v>229.8720588817923</v>
+        <v>229.8720588817924</v>
       </c>
       <c r="U13" t="n">
         <v>262.3768239511401</v>
@@ -1593,7 +1593,7 @@
         <v>256.0378721970692</v>
       </c>
       <c r="X13" t="n">
-        <v>229.6695689474194</v>
+        <v>229.6695689474195</v>
       </c>
       <c r="Y13" t="n">
         <v>211.8772058065306</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.2141487902246</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T14" t="n">
         <v>203.9580261631844</v>
       </c>
       <c r="U14" t="n">
-        <v>243.3501105489628</v>
+        <v>243.3501105489622</v>
       </c>
       <c r="V14" t="n">
         <v>345.7225123930095</v>
@@ -1672,7 +1672,7 @@
         <v>387.5386318705748</v>
       </c>
       <c r="X14" t="n">
-        <v>401.6827706139802</v>
+        <v>401.6827706139819</v>
       </c>
       <c r="Y14" t="n">
         <v>390.9349942908409</v>
@@ -1785,7 +1785,7 @@
         <v>124.6515700213292</v>
       </c>
       <c r="I16" t="n">
-        <v>72.53207139197583</v>
+        <v>72.53207139197585</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.985402631712041</v>
+        <v>4.985402631711331</v>
       </c>
       <c r="S16" t="n">
-        <v>143.2373190996777</v>
+        <v>143.2373190996778</v>
       </c>
       <c r="T16" t="n">
-        <v>229.8720588817923</v>
+        <v>229.8720588817924</v>
       </c>
       <c r="U16" t="n">
         <v>262.3768239511401</v>
@@ -1830,7 +1830,7 @@
         <v>256.0378721970692</v>
       </c>
       <c r="X16" t="n">
-        <v>229.6695689474201</v>
+        <v>229.6695689474195</v>
       </c>
       <c r="Y16" t="n">
         <v>211.8772058065306</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.2141487902246</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T17" t="n">
         <v>203.9580261631844</v>
       </c>
       <c r="U17" t="n">
-        <v>243.3501105489619</v>
+        <v>243.3501105489622</v>
       </c>
       <c r="V17" t="n">
         <v>345.7225123930095</v>
@@ -1912,7 +1912,7 @@
         <v>401.6827706139802</v>
       </c>
       <c r="Y17" t="n">
-        <v>390.9349942908409</v>
+        <v>390.9349942908428</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.6321643592951</v>
+        <v>176.632164359295</v>
       </c>
       <c r="C19" t="n">
-        <v>157.5678262291052</v>
+        <v>157.5678262291051</v>
       </c>
       <c r="D19" t="n">
-        <v>150.9509446979904</v>
+        <v>150.9509446979903</v>
       </c>
       <c r="E19" t="n">
-        <v>154.792155539268</v>
+        <v>154.7921555392679</v>
       </c>
       <c r="F19" t="n">
-        <v>161.6717153253592</v>
+        <v>161.6717153253591</v>
       </c>
       <c r="G19" t="n">
         <v>150.601486095899</v>
       </c>
       <c r="H19" t="n">
-        <v>124.6515700213282</v>
+        <v>124.6515700213292</v>
       </c>
       <c r="I19" t="n">
-        <v>72.53207139197588</v>
+        <v>72.53207139197585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.985402631712084</v>
+        <v>4.985402631711331</v>
       </c>
       <c r="S19" t="n">
         <v>143.2373190996778</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.7683066075573</v>
+        <v>408.7683066075565</v>
       </c>
       <c r="C20" t="n">
         <v>420.4927799159087</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.21414879022379</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T20" t="n">
         <v>203.9580261631844</v>
       </c>
       <c r="U20" t="n">
-        <v>243.3501105489623</v>
+        <v>243.3501105489637</v>
       </c>
       <c r="V20" t="n">
         <v>345.7225123930095</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.6321643592951</v>
+        <v>176.632164359295</v>
       </c>
       <c r="C22" t="n">
-        <v>157.5678262291052</v>
+        <v>157.5678262291051</v>
       </c>
       <c r="D22" t="n">
-        <v>150.9509446979904</v>
+        <v>150.9509446979903</v>
       </c>
       <c r="E22" t="n">
-        <v>154.792155539268</v>
+        <v>154.7921555392679</v>
       </c>
       <c r="F22" t="n">
-        <v>161.671715325358</v>
+        <v>161.6717153253591</v>
       </c>
       <c r="G22" t="n">
         <v>150.601486095899</v>
@@ -2259,7 +2259,7 @@
         <v>124.6515700213292</v>
       </c>
       <c r="I22" t="n">
-        <v>72.53207139197588</v>
+        <v>72.53207139197585</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.985402631712084</v>
+        <v>4.985402631711331</v>
       </c>
       <c r="S22" t="n">
         <v>143.2373190996778</v>
@@ -2320,7 +2320,7 @@
         <v>408.7683066075565</v>
       </c>
       <c r="C23" t="n">
-        <v>420.4927799159087</v>
+        <v>420.4927799159105</v>
       </c>
       <c r="D23" t="n">
         <v>418.2824188047977</v>
@@ -2329,7 +2329,7 @@
         <v>416.1687292207856</v>
       </c>
       <c r="F23" t="n">
-        <v>410.320487122383</v>
+        <v>410.3204871223821</v>
       </c>
       <c r="G23" t="n">
         <v>383.969323206856</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.21414879022379</v>
+        <v>66.21414879022376</v>
       </c>
       <c r="T23" t="n">
         <v>203.9580261631844</v>
       </c>
       <c r="U23" t="n">
-        <v>243.3501105489623</v>
+        <v>243.3501105489622</v>
       </c>
       <c r="V23" t="n">
         <v>345.7225123930095</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.6321643592951</v>
+        <v>176.632164359295</v>
       </c>
       <c r="C25" t="n">
-        <v>157.5678262291052</v>
+        <v>157.5678262291051</v>
       </c>
       <c r="D25" t="n">
-        <v>150.9509446979904</v>
+        <v>150.9509446979903</v>
       </c>
       <c r="E25" t="n">
-        <v>154.792155539268</v>
+        <v>154.7921555392679</v>
       </c>
       <c r="F25" t="n">
-        <v>161.6717153253592</v>
+        <v>161.6717153253591</v>
       </c>
       <c r="G25" t="n">
         <v>150.601486095899</v>
@@ -2496,7 +2496,7 @@
         <v>124.6515700213292</v>
       </c>
       <c r="I25" t="n">
-        <v>72.53207139197588</v>
+        <v>72.53207139197579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.985402631712084</v>
+        <v>4.985402631712056</v>
       </c>
       <c r="S25" t="n">
-        <v>143.237319099677</v>
+        <v>143.2373190996778</v>
       </c>
       <c r="T25" t="n">
         <v>229.8720588817924</v>
@@ -2611,7 +2611,7 @@
         <v>217.2262943356866</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6183787214644</v>
+        <v>256.6183787214641</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>123.593857119777</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8697542684012</v>
+        <v>108.9376242799197</v>
       </c>
       <c r="H28" t="n">
         <v>137.9198381938314</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>156.50558727218</v>
       </c>
       <c r="T28" t="n">
-        <v>243.1403270542945</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6450921236423</v>
@@ -2848,7 +2848,7 @@
         <v>217.2262943356866</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6183787214644</v>
+        <v>256.6183787214641</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.8697542684012</v>
       </c>
       <c r="H31" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>275.6450921236423</v>
       </c>
       <c r="V31" t="n">
-        <v>217.4299190341623</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>64.53154746676222</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3085,7 +3085,7 @@
         <v>217.2262943356866</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6183787214641</v>
+        <v>256.6183787214644</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>82.33403340918004</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.8697542684012</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>156.50558727218</v>
@@ -3243,7 +3243,7 @@
         <v>243.1403270542945</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6450921236423</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>202.7181090598988</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.48241696272589</v>
+        <v>79.48241696272676</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2262943356865</v>
+        <v>217.2262943356866</v>
       </c>
       <c r="U35" t="n">
         <v>256.6183787214641</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.8697542684012</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>64.9928551300878</v>
       </c>
       <c r="I37" t="n">
         <v>85.80033956447805</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>14.78736464891652</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.50558727218</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.48241696272589</v>
+        <v>79.48241696272676</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2262943356861</v>
+        <v>217.2262943356866</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6183787214659</v>
+        <v>256.6183787214632</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8697542684012</v>
+        <v>122.4337311917102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>63.89963718349874</v>
+        <v>156.50558727218</v>
       </c>
       <c r="T40" t="n">
         <v>243.1403270542945</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.48241696272596</v>
+        <v>79.48241696272676</v>
       </c>
       <c r="T41" t="n">
         <v>217.2262943356866</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6183787214644</v>
+        <v>256.6183787214641</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3918,7 +3918,7 @@
         <v>137.9198381938314</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>90.19901186016016</v>
+        <v>156.50558727218</v>
       </c>
       <c r="T43" t="n">
         <v>243.1403270542945</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6450921236423</v>
+        <v>167.473067612663</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.48241696272596</v>
+        <v>79.48241696272676</v>
       </c>
       <c r="T44" t="n">
         <v>217.2262943356866</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>113.1282937232886</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.8697542684012</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.80033956447805</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.25367080421426</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>156.50558727218</v>
       </c>
       <c r="T46" t="n">
-        <v>243.1403270542945</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6450921236423</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>176.70019028089</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>951.9964940415845</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.07884972191</v>
+        <v>1030.032328522557</v>
       </c>
       <c r="X2" t="n">
-        <v>1201.976790341625</v>
+        <v>610.8898651018675</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.2556604860882</v>
+        <v>202.6037414015209</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,37 +4397,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.2867191875922</v>
+        <v>672.6790347687931</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>672.6790347687931</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>506.8010419703159</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>337.0430382210531</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>160.3359841828093</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4494,16 +4494,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.160939331176</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1350.660386397458</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1350.660386397458</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1063.704878267888</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>791.6784738541797</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X4" t="n">
-        <v>546.2867191875922</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y4" t="n">
-        <v>546.2867191875922</v>
+        <v>864.4976534877803</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.0234284442651</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C5" t="n">
-        <v>408.9213596680925</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D5" t="n">
-        <v>377.0519788829411</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E5" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
         <v>34.36045797446834</v>
@@ -4567,25 +4567,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
         <v>1528.02936532736</v>
@@ -4597,22 +4597,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.711182009805</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X5" t="n">
-        <v>873.5687185891154</v>
+        <v>789.5336382545983</v>
       </c>
       <c r="Y5" t="n">
-        <v>869.3229989291729</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,22 +4649,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
         <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>763.7330636584709</v>
+        <v>499.7421271494705</v>
       </c>
       <c r="C7" t="n">
-        <v>763.7330636584709</v>
+        <v>499.7421271494705</v>
       </c>
       <c r="D7" t="n">
-        <v>597.8550708599936</v>
+        <v>499.7421271494705</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>329.9841234002077</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>153.277069361964</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>153.277069361964</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V7" t="n">
-        <v>1472.969841457754</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="W7" t="n">
-        <v>1200.943437044046</v>
+        <v>972.5535525019498</v>
       </c>
       <c r="X7" t="n">
-        <v>955.5516823774581</v>
+        <v>727.1617978353622</v>
       </c>
       <c r="Y7" t="n">
-        <v>955.5516823774581</v>
+        <v>499.7421271494705</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>841.8707619056961</v>
+        <v>550.6055673650617</v>
       </c>
       <c r="C8" t="n">
-        <v>807.7686931295234</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D8" t="n">
-        <v>775.899312344372</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>347.3176380816403</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
         <v>34.36045797446834</v>
@@ -4804,19 +4804,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
         <v>1294.102365436318</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V8" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W8" t="n">
-        <v>1133.426975905747</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X8" t="n">
-        <v>1118.324916525462</v>
+        <v>1057.158688984204</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.079196865519</v>
+        <v>648.8725652838576</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="O9" t="n">
-        <v>874.0494664914149</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.4401176967148</v>
+        <v>770.682113947452</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E10" t="n">
         <v>604.8041211489747</v>
@@ -4971,16 +4971,16 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4992,22 +4992,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1167.859788382606</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V10" t="n">
-        <v>1167.859788382606</v>
+        <v>1515.51994371364</v>
       </c>
       <c r="W10" t="n">
-        <v>1167.859788382606</v>
+        <v>1243.493539299931</v>
       </c>
       <c r="X10" t="n">
-        <v>1167.859788382606</v>
+        <v>998.1017846333436</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.4401176967148</v>
+        <v>770.682113947452</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2442.454968736071</v>
+        <v>2442.454968736069</v>
       </c>
       <c r="C11" t="n">
-        <v>2017.71478700283</v>
+        <v>2017.714787002828</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.20729326061</v>
+        <v>1595.207293260608</v>
       </c>
       <c r="E11" t="n">
         <v>1174.834839502239</v>
@@ -5047,46 +5047,46 @@
         <v>1403.794543349951</v>
       </c>
       <c r="L11" t="n">
-        <v>2093.128880340813</v>
+        <v>2501.704888332818</v>
       </c>
       <c r="M11" t="n">
-        <v>3275.602164685122</v>
+        <v>2527.130337466576</v>
       </c>
       <c r="N11" t="n">
-        <v>3301.439024167353</v>
+        <v>2552.967196948807</v>
       </c>
       <c r="O11" t="n">
-        <v>3325.836037929346</v>
+        <v>3557.543877281106</v>
       </c>
       <c r="P11" t="n">
-        <v>4174.96819956374</v>
+        <v>4406.676038915502</v>
       </c>
       <c r="Q11" t="n">
-        <v>4737.103655744474</v>
+        <v>4906.25772049753</v>
       </c>
       <c r="R11" t="n">
         <v>4915.3534548758</v>
       </c>
       <c r="S11" t="n">
-        <v>4848.470476299816</v>
+        <v>4848.470476299815</v>
       </c>
       <c r="T11" t="n">
-        <v>4642.452268054176</v>
+        <v>4642.452268054175</v>
       </c>
       <c r="U11" t="n">
-        <v>4396.644075580477</v>
+        <v>4396.644075580475</v>
       </c>
       <c r="V11" t="n">
-        <v>4047.429416597639</v>
+        <v>4047.429416597637</v>
       </c>
       <c r="W11" t="n">
-        <v>3655.976253092008</v>
+        <v>3655.976253092006</v>
       </c>
       <c r="X11" t="n">
-        <v>3250.236080754654</v>
+        <v>3250.236080754652</v>
       </c>
       <c r="Y11" t="n">
-        <v>2855.352248137643</v>
+        <v>2855.352248137641</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>458.9161201126525</v>
       </c>
       <c r="K12" t="n">
-        <v>471.42652554951</v>
+        <v>996.4717051674475</v>
       </c>
       <c r="L12" t="n">
-        <v>488.248309539287</v>
+        <v>1013.293489157225</v>
       </c>
       <c r="M12" t="n">
-        <v>507.878538023065</v>
+        <v>1032.923717641003</v>
       </c>
       <c r="N12" t="n">
-        <v>528.0283202432406</v>
+        <v>1053.073499861178</v>
       </c>
       <c r="O12" t="n">
-        <v>546.461434395214</v>
+        <v>1071.506614013152</v>
       </c>
       <c r="P12" t="n">
         <v>1086.30081321216</v>
@@ -5178,22 +5178,22 @@
         <v>1080.900775462088</v>
       </c>
       <c r="C13" t="n">
-        <v>921.741355028649</v>
+        <v>921.7413550286489</v>
       </c>
       <c r="D13" t="n">
-        <v>769.2656533135072</v>
+        <v>769.2656533135071</v>
       </c>
       <c r="E13" t="n">
-        <v>612.90994064758</v>
+        <v>612.9099406475799</v>
       </c>
       <c r="F13" t="n">
-        <v>449.6051776926718</v>
+        <v>449.6051776926716</v>
       </c>
       <c r="G13" t="n">
-        <v>297.4824644644911</v>
+        <v>297.4824644644908</v>
       </c>
       <c r="H13" t="n">
-        <v>171.5717876752697</v>
+        <v>171.5717876752694</v>
       </c>
       <c r="I13" t="n">
         <v>98.30706909751599</v>
@@ -5205,10 +5205,10 @@
         <v>498.054704583764</v>
       </c>
       <c r="L13" t="n">
-        <v>939.0567444586461</v>
+        <v>939.056744458646</v>
       </c>
       <c r="M13" t="n">
-        <v>1421.857699002672</v>
+        <v>1421.857699002671</v>
       </c>
       <c r="N13" t="n">
         <v>1887.19149616568</v>
@@ -5223,7 +5223,7 @@
         <v>2884.442291371592</v>
       </c>
       <c r="R13" t="n">
-        <v>2879.406531137539</v>
+        <v>2879.40653113754</v>
       </c>
       <c r="S13" t="n">
         <v>2734.722370430794</v>
@@ -5266,7 +5266,7 @@
         <v>1174.834839502239</v>
       </c>
       <c r="F14" t="n">
-        <v>760.3697009947817</v>
+        <v>760.3697009947819</v>
       </c>
       <c r="G14" t="n">
         <v>372.5218997757353</v>
@@ -5278,16 +5278,16 @@
         <v>103.4809398549977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.7705796486452</v>
+        <v>551.025267101563</v>
       </c>
       <c r="K14" t="n">
-        <v>968.5398558970329</v>
+        <v>1403.794543349951</v>
       </c>
       <c r="L14" t="n">
-        <v>1144.266065544611</v>
+        <v>1426.644922079959</v>
       </c>
       <c r="M14" t="n">
-        <v>1169.691514678369</v>
+        <v>1452.070371213717</v>
       </c>
       <c r="N14" t="n">
         <v>2321.259357597047</v>
@@ -5305,19 +5305,19 @@
         <v>4915.3534548758</v>
       </c>
       <c r="S14" t="n">
-        <v>4848.470476299815</v>
+        <v>4848.470476299816</v>
       </c>
       <c r="T14" t="n">
-        <v>4642.452268054175</v>
+        <v>4642.452268054176</v>
       </c>
       <c r="U14" t="n">
-        <v>4396.644075580475</v>
+        <v>4396.644075580477</v>
       </c>
       <c r="V14" t="n">
-        <v>4047.429416597637</v>
+        <v>4047.429416597639</v>
       </c>
       <c r="W14" t="n">
-        <v>3655.976253092006</v>
+        <v>3655.976253092008</v>
       </c>
       <c r="X14" t="n">
         <v>3250.236080754652</v>
@@ -5354,28 +5354,28 @@
         <v>98.30706909751599</v>
       </c>
       <c r="I15" t="n">
-        <v>100.9744967173473</v>
+        <v>127.0381698778049</v>
       </c>
       <c r="J15" t="n">
-        <v>432.852446952195</v>
+        <v>458.9161201126525</v>
       </c>
       <c r="K15" t="n">
-        <v>1126.09637245943</v>
+        <v>996.4717051674475</v>
       </c>
       <c r="L15" t="n">
-        <v>1142.918156449207</v>
+        <v>1013.293489157225</v>
       </c>
       <c r="M15" t="n">
-        <v>1162.548384932985</v>
+        <v>1032.923717641003</v>
       </c>
       <c r="N15" t="n">
-        <v>1182.69816715316</v>
+        <v>1053.073499861178</v>
       </c>
       <c r="O15" t="n">
-        <v>1201.131281305134</v>
+        <v>1071.506614013152</v>
       </c>
       <c r="P15" t="n">
-        <v>1627.039751844236</v>
+        <v>1086.30081321216</v>
       </c>
       <c r="Q15" t="n">
         <v>1636.929282219722</v>
@@ -5415,13 +5415,13 @@
         <v>1080.900775462088</v>
       </c>
       <c r="C16" t="n">
-        <v>921.7413550286487</v>
+        <v>921.7413550286489</v>
       </c>
       <c r="D16" t="n">
-        <v>769.265653313507</v>
+        <v>769.2656533135071</v>
       </c>
       <c r="E16" t="n">
-        <v>612.9099406475798</v>
+        <v>612.9099406475799</v>
       </c>
       <c r="F16" t="n">
         <v>449.6051776926716</v>
@@ -5460,7 +5460,7 @@
         <v>2884.442291371592</v>
       </c>
       <c r="R16" t="n">
-        <v>2879.406531137539</v>
+        <v>2879.40653113754</v>
       </c>
       <c r="S16" t="n">
         <v>2734.722370430794</v>
@@ -5521,10 +5521,10 @@
         <v>1403.794543349951</v>
       </c>
       <c r="L17" t="n">
-        <v>1426.644922079959</v>
+        <v>2269.997048981058</v>
       </c>
       <c r="M17" t="n">
-        <v>1452.070371213717</v>
+        <v>2295.422498114816</v>
       </c>
       <c r="N17" t="n">
         <v>2321.259357597047</v>
@@ -5542,22 +5542,22 @@
         <v>4915.3534548758</v>
       </c>
       <c r="S17" t="n">
-        <v>4848.470476299815</v>
+        <v>4848.470476299816</v>
       </c>
       <c r="T17" t="n">
-        <v>4642.452268054174</v>
+        <v>4642.452268054176</v>
       </c>
       <c r="U17" t="n">
-        <v>4396.644075580475</v>
+        <v>4396.644075580477</v>
       </c>
       <c r="V17" t="n">
-        <v>4047.429416597637</v>
+        <v>4047.429416597639</v>
       </c>
       <c r="W17" t="n">
-        <v>3655.976253092006</v>
+        <v>3655.976253092008</v>
       </c>
       <c r="X17" t="n">
-        <v>3250.236080754652</v>
+        <v>3250.236080754654</v>
       </c>
       <c r="Y17" t="n">
         <v>2855.352248137641</v>
@@ -5591,31 +5591,31 @@
         <v>98.30706909751599</v>
       </c>
       <c r="I18" t="n">
-        <v>100.9744967173473</v>
+        <v>127.0381698778049</v>
       </c>
       <c r="J18" t="n">
-        <v>108.2941219859826</v>
+        <v>458.9161201126525</v>
       </c>
       <c r="K18" t="n">
-        <v>120.80452742284</v>
+        <v>471.42652554951</v>
       </c>
       <c r="L18" t="n">
-        <v>657.4035960653381</v>
+        <v>488.2483095392871</v>
       </c>
       <c r="M18" t="n">
-        <v>677.033824549116</v>
+        <v>507.8785380230651</v>
       </c>
       <c r="N18" t="n">
-        <v>697.1836067692917</v>
+        <v>528.0283202432407</v>
       </c>
       <c r="O18" t="n">
-        <v>1729.418330739567</v>
+        <v>546.4614343952142</v>
       </c>
       <c r="P18" t="n">
-        <v>1744.212529938575</v>
+        <v>1086.30081321216</v>
       </c>
       <c r="Q18" t="n">
-        <v>1754.102060314062</v>
+        <v>1636.929282219722</v>
       </c>
       <c r="R18" t="n">
         <v>1758.912264821875</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1080.900775462087</v>
+        <v>1080.900775462088</v>
       </c>
       <c r="C19" t="n">
-        <v>921.7413550286479</v>
+        <v>921.7413550286489</v>
       </c>
       <c r="D19" t="n">
-        <v>769.2656533135062</v>
+        <v>769.2656533135071</v>
       </c>
       <c r="E19" t="n">
-        <v>612.9099406475789</v>
+        <v>612.9099406475799</v>
       </c>
       <c r="F19" t="n">
-        <v>449.6051776926706</v>
+        <v>449.6051776926716</v>
       </c>
       <c r="G19" t="n">
-        <v>297.4824644644898</v>
+        <v>297.4824644644908</v>
       </c>
       <c r="H19" t="n">
         <v>171.5717876752694</v>
@@ -5676,7 +5676,7 @@
         <v>202.6144374193491</v>
       </c>
       <c r="K19" t="n">
-        <v>498.0547045837639</v>
+        <v>498.054704583764</v>
       </c>
       <c r="L19" t="n">
         <v>939.056744458646</v>
@@ -5697,28 +5697,28 @@
         <v>2884.442291371592</v>
       </c>
       <c r="R19" t="n">
-        <v>2879.406531137539</v>
+        <v>2879.40653113754</v>
       </c>
       <c r="S19" t="n">
-        <v>2734.722370430793</v>
+        <v>2734.722370430794</v>
       </c>
       <c r="T19" t="n">
-        <v>2502.528371560296</v>
+        <v>2502.528371560297</v>
       </c>
       <c r="U19" t="n">
-        <v>2237.501276660154</v>
+        <v>2237.501276660155</v>
       </c>
       <c r="V19" t="n">
-        <v>1963.94805961392</v>
+        <v>1963.948059613921</v>
       </c>
       <c r="W19" t="n">
-        <v>1705.323946283547</v>
+        <v>1705.323946283548</v>
       </c>
       <c r="X19" t="n">
-        <v>1473.334482700295</v>
+        <v>1473.334482700296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1259.317103097739</v>
+        <v>1259.31710309774</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2442.454968736069</v>
+        <v>2442.45496873607</v>
       </c>
       <c r="C20" t="n">
         <v>2017.714787002828</v>
@@ -5740,7 +5740,7 @@
         <v>1174.834839502239</v>
       </c>
       <c r="F20" t="n">
-        <v>760.3697009947819</v>
+        <v>760.3697009947823</v>
       </c>
       <c r="G20" t="n">
         <v>372.5218997757353</v>
@@ -5758,16 +5758,16 @@
         <v>1403.794543349951</v>
       </c>
       <c r="L20" t="n">
-        <v>1426.644922079959</v>
+        <v>2501.704888332818</v>
       </c>
       <c r="M20" t="n">
-        <v>2609.118206424268</v>
+        <v>3123.732372948213</v>
       </c>
       <c r="N20" t="n">
-        <v>3301.439024167353</v>
+        <v>3149.569232430443</v>
       </c>
       <c r="O20" t="n">
-        <v>3325.836037929346</v>
+        <v>4154.145912762742</v>
       </c>
       <c r="P20" t="n">
         <v>4174.96819956374</v>
@@ -5782,19 +5782,19 @@
         <v>4848.470476299816</v>
       </c>
       <c r="T20" t="n">
-        <v>4642.452268054175</v>
+        <v>4642.452268054176</v>
       </c>
       <c r="U20" t="n">
-        <v>4396.644075580476</v>
+        <v>4396.644075580475</v>
       </c>
       <c r="V20" t="n">
-        <v>4047.429416597638</v>
+        <v>4047.429416597637</v>
       </c>
       <c r="W20" t="n">
-        <v>3655.976253092007</v>
+        <v>3655.976253092006</v>
       </c>
       <c r="X20" t="n">
-        <v>3250.236080754653</v>
+        <v>3250.236080754652</v>
       </c>
       <c r="Y20" t="n">
         <v>2855.352248137642</v>
@@ -5828,25 +5828,25 @@
         <v>98.30706909751599</v>
       </c>
       <c r="I21" t="n">
-        <v>127.0381698778049</v>
+        <v>100.9744967173473</v>
       </c>
       <c r="J21" t="n">
-        <v>458.9161201126525</v>
+        <v>432.852446952195</v>
       </c>
       <c r="K21" t="n">
-        <v>471.42652554951</v>
+        <v>1113.644483261787</v>
       </c>
       <c r="L21" t="n">
-        <v>488.248309539287</v>
+        <v>1130.466267251564</v>
       </c>
       <c r="M21" t="n">
-        <v>507.878538023065</v>
+        <v>1150.096495735342</v>
       </c>
       <c r="N21" t="n">
-        <v>528.0283202432406</v>
+        <v>1170.246277955518</v>
       </c>
       <c r="O21" t="n">
-        <v>546.461434395214</v>
+        <v>1188.679392107491</v>
       </c>
       <c r="P21" t="n">
         <v>1203.4735913065</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1080.900775462087</v>
+        <v>1080.900775462088</v>
       </c>
       <c r="C22" t="n">
-        <v>921.7413550286479</v>
+        <v>921.7413550286489</v>
       </c>
       <c r="D22" t="n">
-        <v>769.2656533135062</v>
+        <v>769.2656533135071</v>
       </c>
       <c r="E22" t="n">
-        <v>612.9099406475789</v>
+        <v>612.9099406475799</v>
       </c>
       <c r="F22" t="n">
-        <v>449.6051776926718</v>
+        <v>449.6051776926716</v>
       </c>
       <c r="G22" t="n">
-        <v>297.4824644644909</v>
+        <v>297.4824644644908</v>
       </c>
       <c r="H22" t="n">
         <v>171.5717876752694</v>
@@ -5913,7 +5913,7 @@
         <v>202.6144374193491</v>
       </c>
       <c r="K22" t="n">
-        <v>498.0547045837639</v>
+        <v>498.054704583764</v>
       </c>
       <c r="L22" t="n">
         <v>939.056744458646</v>
@@ -5934,28 +5934,28 @@
         <v>2884.442291371592</v>
       </c>
       <c r="R22" t="n">
-        <v>2879.406531137539</v>
+        <v>2879.40653113754</v>
       </c>
       <c r="S22" t="n">
-        <v>2734.722370430793</v>
+        <v>2734.722370430794</v>
       </c>
       <c r="T22" t="n">
-        <v>2502.528371560296</v>
+        <v>2502.528371560297</v>
       </c>
       <c r="U22" t="n">
-        <v>2237.501276660154</v>
+        <v>2237.501276660155</v>
       </c>
       <c r="V22" t="n">
-        <v>1963.94805961392</v>
+        <v>1963.948059613921</v>
       </c>
       <c r="W22" t="n">
-        <v>1705.323946283547</v>
+        <v>1705.323946283548</v>
       </c>
       <c r="X22" t="n">
-        <v>1473.334482700295</v>
+        <v>1473.334482700296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1259.317103097739</v>
+        <v>1259.31710309774</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2442.45496873607</v>
+        <v>2442.454968736071</v>
       </c>
       <c r="C23" t="n">
-        <v>2017.714787002829</v>
+        <v>2017.714787002828</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.207293260609</v>
+        <v>1595.207293260608</v>
       </c>
       <c r="E23" t="n">
         <v>1174.834839502239</v>
@@ -5992,16 +5992,16 @@
         <v>551.025267101563</v>
       </c>
       <c r="K23" t="n">
-        <v>569.4442513917728</v>
+        <v>1403.794543349951</v>
       </c>
       <c r="L23" t="n">
-        <v>967.3978969043663</v>
+        <v>2269.997048981058</v>
       </c>
       <c r="M23" t="n">
-        <v>2149.871181248675</v>
+        <v>2295.422498114816</v>
       </c>
       <c r="N23" t="n">
-        <v>3301.439024167353</v>
+        <v>2321.259357597047</v>
       </c>
       <c r="O23" t="n">
         <v>3325.836037929346</v>
@@ -6019,22 +6019,22 @@
         <v>4848.470476299816</v>
       </c>
       <c r="T23" t="n">
-        <v>4642.452268054175</v>
+        <v>4642.452268054176</v>
       </c>
       <c r="U23" t="n">
-        <v>4396.644075580476</v>
+        <v>4396.644075580477</v>
       </c>
       <c r="V23" t="n">
-        <v>4047.429416597638</v>
+        <v>4047.429416597639</v>
       </c>
       <c r="W23" t="n">
-        <v>3655.976253092007</v>
+        <v>3655.976253092008</v>
       </c>
       <c r="X23" t="n">
-        <v>3250.236080754653</v>
+        <v>3250.236080754654</v>
       </c>
       <c r="Y23" t="n">
-        <v>2855.352248137642</v>
+        <v>2855.352248137643</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>127.0381698778049</v>
       </c>
       <c r="J24" t="n">
-        <v>134.3577951464402</v>
+        <v>458.9161201126525</v>
       </c>
       <c r="K24" t="n">
-        <v>146.8682005832976</v>
+        <v>996.4717051674475</v>
       </c>
       <c r="L24" t="n">
-        <v>1118.233033384178</v>
+        <v>1013.293489157225</v>
       </c>
       <c r="M24" t="n">
-        <v>1137.863261867956</v>
+        <v>1032.923717641003</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.013044088132</v>
+        <v>1053.073499861178</v>
       </c>
       <c r="O24" t="n">
-        <v>1176.446158240105</v>
+        <v>1071.506614013152</v>
       </c>
       <c r="P24" t="n">
-        <v>1744.212529938575</v>
+        <v>1086.30081321216</v>
       </c>
       <c r="Q24" t="n">
-        <v>1754.102060314062</v>
+        <v>1636.929282219722</v>
       </c>
       <c r="R24" t="n">
         <v>1758.912264821875</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1080.900775462089</v>
+        <v>1080.900775462088</v>
       </c>
       <c r="C25" t="n">
-        <v>921.7413550286491</v>
+        <v>921.741355028649</v>
       </c>
       <c r="D25" t="n">
-        <v>769.2656533135073</v>
+        <v>769.2656533135072</v>
       </c>
       <c r="E25" t="n">
         <v>612.90994064758</v>
@@ -6138,10 +6138,10 @@
         <v>449.6051776926718</v>
       </c>
       <c r="G25" t="n">
-        <v>297.4824644644909</v>
+        <v>297.4824644644908</v>
       </c>
       <c r="H25" t="n">
-        <v>171.5717876752694</v>
+        <v>171.5717876752693</v>
       </c>
       <c r="I25" t="n">
         <v>98.30706909751599</v>
@@ -6150,7 +6150,7 @@
         <v>202.6144374193491</v>
       </c>
       <c r="K25" t="n">
-        <v>498.0547045837639</v>
+        <v>498.054704583764</v>
       </c>
       <c r="L25" t="n">
         <v>939.056744458646</v>
@@ -6171,7 +6171,7 @@
         <v>2884.442291371592</v>
       </c>
       <c r="R25" t="n">
-        <v>2879.406531137539</v>
+        <v>2879.40653113754</v>
       </c>
       <c r="S25" t="n">
         <v>2734.722370430794</v>
@@ -6186,10 +6186,10 @@
         <v>1963.948059613921</v>
       </c>
       <c r="W25" t="n">
-        <v>1705.323946283549</v>
+        <v>1705.323946283548</v>
       </c>
       <c r="X25" t="n">
-        <v>1473.334482700297</v>
+        <v>1473.334482700296</v>
       </c>
       <c r="Y25" t="n">
         <v>1259.31710309774</v>
@@ -6214,7 +6214,7 @@
         <v>1218.870938776055</v>
       </c>
       <c r="F26" t="n">
-        <v>791.0035091852628</v>
+        <v>791.0035091852624</v>
       </c>
       <c r="G26" t="n">
         <v>389.753416882881</v>
@@ -6226,16 +6226,16 @@
         <v>107.3101658788078</v>
       </c>
       <c r="J26" t="n">
-        <v>119.5998056724553</v>
+        <v>554.8544931253731</v>
       </c>
       <c r="K26" t="n">
-        <v>138.018789962665</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L26" t="n">
-        <v>1235.929134945532</v>
+        <v>1430.474148103769</v>
       </c>
       <c r="M26" t="n">
-        <v>2418.402419289841</v>
+        <v>1455.899597237527</v>
       </c>
       <c r="N26" t="n">
         <v>2512.720658787552</v>
@@ -6256,7 +6256,7 @@
         <v>5026.529486406987</v>
       </c>
       <c r="T26" t="n">
-        <v>4807.108987078011</v>
+        <v>4807.10898707801</v>
       </c>
       <c r="U26" t="n">
         <v>4547.898503520975</v>
@@ -6302,28 +6302,28 @@
         <v>102.1362951213261</v>
       </c>
       <c r="I27" t="n">
-        <v>104.8037227411575</v>
+        <v>130.8673959016151</v>
       </c>
       <c r="J27" t="n">
-        <v>112.1233480097927</v>
+        <v>462.7453461364626</v>
       </c>
       <c r="K27" t="n">
-        <v>124.6337534466501</v>
+        <v>475.25575157332</v>
       </c>
       <c r="L27" t="n">
-        <v>141.4555374364273</v>
+        <v>492.0775355630972</v>
       </c>
       <c r="M27" t="n">
-        <v>563.6902724785862</v>
+        <v>511.7077640468752</v>
       </c>
       <c r="N27" t="n">
-        <v>583.8400546987618</v>
+        <v>531.8575462670509</v>
       </c>
       <c r="O27" t="n">
-        <v>1616.074778669037</v>
+        <v>550.2906604190242</v>
       </c>
       <c r="P27" t="n">
-        <v>1630.868977868045</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q27" t="n">
         <v>1640.758508243532</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1050.843316528648</v>
+        <v>1123.059039080882</v>
       </c>
       <c r="C28" t="n">
-        <v>878.2816050118728</v>
+        <v>950.4973275641072</v>
       </c>
       <c r="D28" t="n">
-        <v>753.4393250929061</v>
+        <v>784.6193347656299</v>
       </c>
       <c r="E28" t="n">
-        <v>583.6813213436433</v>
+        <v>614.8613310163671</v>
       </c>
       <c r="F28" t="n">
-        <v>406.9742673053995</v>
+        <v>438.1542769781233</v>
       </c>
       <c r="G28" t="n">
-        <v>241.4492629938831</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="H28" t="n">
-        <v>102.1362951213261</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I28" t="n">
         <v>102.1362951213261</v>
@@ -6408,28 +6408,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R28" t="n">
-        <v>2764.748782151796</v>
+        <v>2783.186833469184</v>
       </c>
       <c r="S28" t="n">
-        <v>2606.662330361715</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="T28" t="n">
-        <v>2361.066040407882</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="U28" t="n">
-        <v>2082.636654424405</v>
+        <v>2346.670995695627</v>
       </c>
       <c r="V28" t="n">
-        <v>1795.681146294836</v>
+        <v>2059.715487566057</v>
       </c>
       <c r="W28" t="n">
-        <v>1523.654741881127</v>
+        <v>1787.689083152349</v>
       </c>
       <c r="X28" t="n">
-        <v>1278.26298721454</v>
+        <v>1542.297328485761</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.843316528648</v>
+        <v>1314.877657799869</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>2088.555468443315</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.645683617759</v>
+        <v>1652.64568361776</v>
       </c>
       <c r="E29" t="n">
         <v>1218.870938776055</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0035091852628</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G29" t="n">
-        <v>389.7534168828806</v>
+        <v>389.7534168828811</v>
       </c>
       <c r="H29" t="n">
         <v>102.1362951213261</v>
@@ -6463,25 +6463,25 @@
         <v>107.3101658788078</v>
       </c>
       <c r="J29" t="n">
-        <v>119.5998056724553</v>
+        <v>554.8544931253731</v>
       </c>
       <c r="K29" t="n">
-        <v>972.369081920843</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L29" t="n">
-        <v>2070.27942690371</v>
+        <v>1430.474148103769</v>
       </c>
       <c r="M29" t="n">
-        <v>3033.382585263916</v>
+        <v>1455.899597237527</v>
       </c>
       <c r="N29" t="n">
-        <v>3059.219444746147</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O29" t="n">
-        <v>4063.796125078446</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P29" t="n">
-        <v>4912.928286712841</v>
+        <v>4366.429500754246</v>
       </c>
       <c r="Q29" t="n">
         <v>4928.56495693498</v>
@@ -6496,19 +6496,19 @@
         <v>4807.108987078011</v>
       </c>
       <c r="U29" t="n">
-        <v>4547.898503520975</v>
+        <v>4547.898503520976</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.281553454802</v>
+        <v>4185.281553454803</v>
       </c>
       <c r="W29" t="n">
-        <v>3780.426098865835</v>
+        <v>3780.426098865836</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.283635445146</v>
+        <v>3361.283635445147</v>
       </c>
       <c r="Y29" t="n">
-        <v>2952.997511744799</v>
+        <v>2952.9975117448</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>462.7453461364627</v>
       </c>
       <c r="K30" t="n">
-        <v>1000.300931191257</v>
+        <v>475.2557515733201</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.122715181035</v>
+        <v>492.0775355630973</v>
       </c>
       <c r="M30" t="n">
-        <v>1036.752943664812</v>
+        <v>511.7077640468752</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.902725884988</v>
+        <v>531.8575462670509</v>
       </c>
       <c r="O30" t="n">
-        <v>1075.335840036961</v>
+        <v>550.2906604190242</v>
       </c>
       <c r="P30" t="n">
         <v>1090.13003923597</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.3540250966421</v>
+        <v>1039.23307119669</v>
       </c>
       <c r="C31" t="n">
-        <v>753.792313579867</v>
+        <v>866.6713596799153</v>
       </c>
       <c r="D31" t="n">
-        <v>587.9143207813897</v>
+        <v>700.793366881438</v>
       </c>
       <c r="E31" t="n">
-        <v>418.1563170321269</v>
+        <v>531.0353631321752</v>
       </c>
       <c r="F31" t="n">
-        <v>241.4492629938831</v>
+        <v>354.3283090939315</v>
       </c>
       <c r="G31" t="n">
-        <v>241.4492629938831</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1362951213261</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I31" t="n">
         <v>102.1362951213261</v>
@@ -6657,16 +6657,16 @@
         <v>2082.636654424405</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.010473581817</v>
+        <v>1795.681146294836</v>
       </c>
       <c r="W31" t="n">
-        <v>1590.984069168109</v>
+        <v>1523.654741881127</v>
       </c>
       <c r="X31" t="n">
-        <v>1345.592314501521</v>
+        <v>1458.471360601569</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.172643815629</v>
+        <v>1231.051689915678</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>2088.555468443315</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.64568361776</v>
+        <v>1652.645683617759</v>
       </c>
       <c r="E32" t="n">
         <v>1218.870938776055</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0035091852631</v>
+        <v>791.0035091852624</v>
       </c>
       <c r="G32" t="n">
         <v>389.7534168828811</v>
@@ -6700,22 +6700,22 @@
         <v>107.3101658788078</v>
       </c>
       <c r="J32" t="n">
-        <v>119.5998056724553</v>
+        <v>554.8544931253731</v>
       </c>
       <c r="K32" t="n">
-        <v>972.369081920843</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L32" t="n">
-        <v>2070.27942690371</v>
+        <v>1430.474148103769</v>
       </c>
       <c r="M32" t="n">
-        <v>3252.752711248019</v>
+        <v>1455.899597237527</v>
       </c>
       <c r="N32" t="n">
-        <v>3341.030533620949</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O32" t="n">
-        <v>4345.607213953248</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P32" t="n">
         <v>4366.429500754246</v>
@@ -6733,19 +6733,19 @@
         <v>4807.108987078011</v>
       </c>
       <c r="U32" t="n">
-        <v>4547.898503520976</v>
+        <v>4547.898503520975</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.281553454803</v>
+        <v>4185.281553454802</v>
       </c>
       <c r="W32" t="n">
-        <v>3780.426098865836</v>
+        <v>3780.426098865835</v>
       </c>
       <c r="X32" t="n">
-        <v>3361.283635445147</v>
+        <v>3361.283635445146</v>
       </c>
       <c r="Y32" t="n">
-        <v>2952.9975117448</v>
+        <v>2952.997511744799</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>102.1362951213261</v>
       </c>
       <c r="I33" t="n">
-        <v>104.8037227411575</v>
+        <v>130.8673959016151</v>
       </c>
       <c r="J33" t="n">
-        <v>112.1233480097927</v>
+        <v>462.7453461364627</v>
       </c>
       <c r="K33" t="n">
-        <v>124.6337534466501</v>
+        <v>475.2557515733201</v>
       </c>
       <c r="L33" t="n">
-        <v>141.4555374364273</v>
+        <v>492.0775355630973</v>
       </c>
       <c r="M33" t="n">
-        <v>1359.810600012705</v>
+        <v>511.7077640468752</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.641664517064</v>
+        <v>531.8575462670509</v>
       </c>
       <c r="O33" t="n">
-        <v>1616.074778669037</v>
+        <v>550.2906604190242</v>
       </c>
       <c r="P33" t="n">
-        <v>1630.868977868045</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q33" t="n">
         <v>1640.758508243532</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>859.0246978096607</v>
+        <v>1178.546039069247</v>
       </c>
       <c r="C34" t="n">
-        <v>686.4629862928856</v>
+        <v>1005.984327552472</v>
       </c>
       <c r="D34" t="n">
-        <v>520.5849934944083</v>
+        <v>840.106334753995</v>
       </c>
       <c r="E34" t="n">
-        <v>350.8269897451456</v>
+        <v>670.3483310047322</v>
       </c>
       <c r="F34" t="n">
-        <v>267.6612994328425</v>
+        <v>493.6412769664885</v>
       </c>
       <c r="G34" t="n">
-        <v>102.1362951213261</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="H34" t="n">
-        <v>102.1362951213261</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I34" t="n">
         <v>102.1362951213261</v>
@@ -6882,28 +6882,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R34" t="n">
-        <v>2764.748782151796</v>
+        <v>2783.186833469184</v>
       </c>
       <c r="S34" t="n">
-        <v>2606.662330361715</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="T34" t="n">
-        <v>2361.066040407882</v>
+        <v>2379.50409172527</v>
       </c>
       <c r="U34" t="n">
-        <v>2082.636654424405</v>
+        <v>2379.50409172527</v>
       </c>
       <c r="V34" t="n">
-        <v>1795.681146294836</v>
+        <v>2092.548583595701</v>
       </c>
       <c r="W34" t="n">
-        <v>1523.654741881127</v>
+        <v>1820.522179181993</v>
       </c>
       <c r="X34" t="n">
-        <v>1278.26298721454</v>
+        <v>1575.130424515405</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.843316528648</v>
+        <v>1370.364657788235</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>2088.555468443315</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.645683617759</v>
+        <v>1652.64568361776</v>
       </c>
       <c r="E35" t="n">
         <v>1218.870938776055</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0035091852626</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G35" t="n">
-        <v>389.753416882881</v>
+        <v>389.7534168828811</v>
       </c>
       <c r="H35" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I35" t="n">
         <v>107.3101658788078</v>
@@ -6943,46 +6943,46 @@
         <v>1407.623769373761</v>
       </c>
       <c r="L35" t="n">
-        <v>1430.474148103769</v>
+        <v>2505.534114356628</v>
       </c>
       <c r="M35" t="n">
-        <v>2486.883799305322</v>
+        <v>3688.007398700937</v>
       </c>
       <c r="N35" t="n">
-        <v>2512.720658787552</v>
+        <v>3713.844258183168</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.297339119851</v>
+        <v>3738.241271945161</v>
       </c>
       <c r="P35" t="n">
-        <v>4366.429500754245</v>
+        <v>4366.429500754247</v>
       </c>
       <c r="Q35" t="n">
-        <v>4928.564956934979</v>
+        <v>4928.564956934981</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.814756066306</v>
+        <v>5106.814756066307</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.529486406986</v>
+        <v>5026.529486406987</v>
       </c>
       <c r="T35" t="n">
-        <v>4807.10898707801</v>
+        <v>4807.108987078011</v>
       </c>
       <c r="U35" t="n">
-        <v>4547.898503520975</v>
+        <v>4547.898503520976</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.281553454802</v>
+        <v>4185.281553454803</v>
       </c>
       <c r="W35" t="n">
-        <v>3780.426098865835</v>
+        <v>3780.426098865836</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.283635445146</v>
+        <v>3361.283635445147</v>
       </c>
       <c r="Y35" t="n">
-        <v>2952.997511744799</v>
+        <v>2952.9975117448</v>
       </c>
     </row>
     <row r="36">
@@ -6998,10 +6998,10 @@
         <v>501.0091003621691</v>
       </c>
       <c r="D36" t="n">
-        <v>405.9188115087223</v>
+        <v>405.9188115087224</v>
       </c>
       <c r="E36" t="n">
-        <v>311.798396835676</v>
+        <v>311.7983968356761</v>
       </c>
       <c r="F36" t="n">
         <v>228.4145584518377</v>
@@ -7010,34 +7010,34 @@
         <v>143.1085160916253</v>
       </c>
       <c r="H36" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I36" t="n">
-        <v>104.8037227411575</v>
+        <v>130.8673959016151</v>
       </c>
       <c r="J36" t="n">
-        <v>436.6816729760051</v>
+        <v>462.7453461364627</v>
       </c>
       <c r="K36" t="n">
-        <v>1129.92559848324</v>
+        <v>475.2557515733201</v>
       </c>
       <c r="L36" t="n">
-        <v>1146.747382473017</v>
+        <v>492.0775355630973</v>
       </c>
       <c r="M36" t="n">
-        <v>1166.377610956795</v>
+        <v>511.7077640468752</v>
       </c>
       <c r="N36" t="n">
-        <v>1186.52739317697</v>
+        <v>531.8575462670509</v>
       </c>
       <c r="O36" t="n">
-        <v>1204.960507328944</v>
+        <v>550.2906604190242</v>
       </c>
       <c r="P36" t="n">
-        <v>1219.754706527952</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q36" t="n">
-        <v>1757.931286337872</v>
+        <v>1640.758508243532</v>
       </c>
       <c r="R36" t="n">
         <v>1762.741490845685</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>862.5260171584466</v>
+        <v>1104.882419812941</v>
       </c>
       <c r="C37" t="n">
-        <v>689.9643056416716</v>
+        <v>932.3207082961657</v>
       </c>
       <c r="D37" t="n">
-        <v>524.0863128431943</v>
+        <v>766.4427154976884</v>
       </c>
       <c r="E37" t="n">
-        <v>354.3283090939315</v>
+        <v>596.6847117484256</v>
       </c>
       <c r="F37" t="n">
-        <v>354.3283090939315</v>
+        <v>419.9776577101818</v>
       </c>
       <c r="G37" t="n">
-        <v>188.8033047824151</v>
+        <v>254.4526533986654</v>
       </c>
       <c r="H37" t="n">
         <v>188.8033047824151</v>
       </c>
       <c r="I37" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="J37" t="n">
         <v>193.3080779523821</v>
       </c>
       <c r="K37" t="n">
-        <v>475.6127596260197</v>
+        <v>475.6127596260198</v>
       </c>
       <c r="L37" t="n">
         <v>903.4792140101248</v>
@@ -7119,28 +7119,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R37" t="n">
-        <v>2768.250101500582</v>
+        <v>2783.186833469184</v>
       </c>
       <c r="S37" t="n">
-        <v>2610.163649710501</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="T37" t="n">
-        <v>2364.567359756668</v>
+        <v>2379.50409172527</v>
       </c>
       <c r="U37" t="n">
-        <v>2086.137973773191</v>
+        <v>2101.074705741793</v>
       </c>
       <c r="V37" t="n">
-        <v>1799.182465643622</v>
+        <v>1814.119197612224</v>
       </c>
       <c r="W37" t="n">
-        <v>1527.156061229913</v>
+        <v>1542.092793198515</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.764306563326</v>
+        <v>1296.701038531928</v>
       </c>
       <c r="Y37" t="n">
-        <v>1054.344635877434</v>
+        <v>1296.701038531928</v>
       </c>
     </row>
     <row r="38">
@@ -7162,64 +7162,64 @@
         <v>1218.870938776055</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0035091852629</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G38" t="n">
-        <v>389.753416882881</v>
+        <v>389.7534168828811</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I38" t="n">
         <v>107.3101658788078</v>
       </c>
       <c r="J38" t="n">
-        <v>119.5998056724553</v>
+        <v>554.8544931253731</v>
       </c>
       <c r="K38" t="n">
-        <v>972.369081920843</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L38" t="n">
-        <v>2070.27942690371</v>
+        <v>2284.59018153132</v>
       </c>
       <c r="M38" t="n">
-        <v>3252.752711248019</v>
+        <v>3467.063465875629</v>
       </c>
       <c r="N38" t="n">
-        <v>3278.58957073025</v>
+        <v>3492.90032535786</v>
       </c>
       <c r="O38" t="n">
         <v>3517.297339119852</v>
       </c>
       <c r="P38" t="n">
-        <v>4366.429500754246</v>
+        <v>4366.429500754247</v>
       </c>
       <c r="Q38" t="n">
-        <v>4928.56495693498</v>
+        <v>4928.564956934981</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.814756066306</v>
+        <v>5106.814756066307</v>
       </c>
       <c r="S38" t="n">
         <v>5026.529486406987</v>
       </c>
       <c r="T38" t="n">
-        <v>4807.108987078012</v>
+        <v>4807.108987078011</v>
       </c>
       <c r="U38" t="n">
-        <v>4547.898503520975</v>
+        <v>4547.898503520977</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.281553454802</v>
+        <v>4185.281553454804</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.426098865835</v>
+        <v>3780.426098865837</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.283635445146</v>
+        <v>3361.283635445147</v>
       </c>
       <c r="Y38" t="n">
-        <v>2952.997511744799</v>
+        <v>2952.9975117448</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>143.1085160916253</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I39" t="n">
-        <v>104.8037227411575</v>
+        <v>130.8673959016151</v>
       </c>
       <c r="J39" t="n">
-        <v>112.1233480097927</v>
+        <v>462.7453461364627</v>
       </c>
       <c r="K39" t="n">
-        <v>124.6337534466501</v>
+        <v>475.2557515733201</v>
       </c>
       <c r="L39" t="n">
-        <v>476.3095978149503</v>
+        <v>492.0775355630973</v>
       </c>
       <c r="M39" t="n">
-        <v>1694.664660391228</v>
+        <v>511.7077640468752</v>
       </c>
       <c r="N39" t="n">
-        <v>1714.814442611404</v>
+        <v>531.8575462670509</v>
       </c>
       <c r="O39" t="n">
-        <v>1733.247556763377</v>
+        <v>550.2906604190242</v>
       </c>
       <c r="P39" t="n">
-        <v>1748.041755962385</v>
+        <v>1090.13003923597</v>
       </c>
       <c r="Q39" t="n">
-        <v>1757.931286337872</v>
+        <v>1640.758508243532</v>
       </c>
       <c r="R39" t="n">
         <v>1762.741490845685</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.5660615356014</v>
+        <v>877.4627491270489</v>
       </c>
       <c r="C40" t="n">
-        <v>780.0043500188264</v>
+        <v>877.4627491270489</v>
       </c>
       <c r="D40" t="n">
-        <v>614.1263572203491</v>
+        <v>711.5847563285716</v>
       </c>
       <c r="E40" t="n">
-        <v>444.3683534710863</v>
+        <v>541.826752579309</v>
       </c>
       <c r="F40" t="n">
-        <v>267.6612994328425</v>
+        <v>365.1196985410652</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1362951213261</v>
+        <v>241.4492629938832</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="J40" t="n">
         <v>193.3080779523821</v>
@@ -7356,28 +7356,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R40" t="n">
-        <v>2764.748782151796</v>
+        <v>2783.186833469184</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.203694087656</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.607404133823</v>
+        <v>2379.50409172527</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.178018150346</v>
+        <v>2101.074705741793</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.222510020776</v>
+        <v>1814.119197612224</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.196105607068</v>
+        <v>1542.092793198515</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.80435094048</v>
+        <v>1296.701038531928</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.384680254589</v>
+        <v>1069.281367846036</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.697941259892</v>
+        <v>2526.697941259893</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.555468443315</v>
+        <v>2088.555468443316</v>
       </c>
       <c r="D41" t="n">
         <v>1652.64568361776</v>
@@ -7399,43 +7399,43 @@
         <v>1218.870938776055</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0035091852631</v>
+        <v>791.0035091852633</v>
       </c>
       <c r="G41" t="n">
         <v>389.7534168828811</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I41" t="n">
         <v>107.3101658788078</v>
       </c>
       <c r="J41" t="n">
-        <v>554.8544931253731</v>
+        <v>119.5998056724553</v>
       </c>
       <c r="K41" t="n">
-        <v>984.1390276279537</v>
+        <v>138.018789962665</v>
       </c>
       <c r="L41" t="n">
-        <v>1006.989406357962</v>
+        <v>1235.929134945532</v>
       </c>
       <c r="M41" t="n">
-        <v>2189.462690702271</v>
+        <v>2418.402419289842</v>
       </c>
       <c r="N41" t="n">
-        <v>3341.030533620949</v>
+        <v>3569.97026220852</v>
       </c>
       <c r="O41" t="n">
-        <v>4345.607213953248</v>
+        <v>4574.546942540819</v>
       </c>
       <c r="P41" t="n">
-        <v>4366.429500754246</v>
+        <v>4595.369229341817</v>
       </c>
       <c r="Q41" t="n">
-        <v>4928.56495693498</v>
+        <v>5097.719021688037</v>
       </c>
       <c r="R41" t="n">
-        <v>5106.814756066306</v>
+        <v>5106.814756066307</v>
       </c>
       <c r="S41" t="n">
         <v>5026.529486406987</v>
@@ -7484,13 +7484,13 @@
         <v>143.1085160916253</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I42" t="n">
         <v>130.8673959016151</v>
       </c>
       <c r="J42" t="n">
-        <v>307.0570056840226</v>
+        <v>462.7453461364627</v>
       </c>
       <c r="K42" t="n">
         <v>1000.300931191257</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.0010366096811</v>
+        <v>1178.546039069247</v>
       </c>
       <c r="C43" t="n">
-        <v>753.4393250929061</v>
+        <v>1005.984327552472</v>
       </c>
       <c r="D43" t="n">
-        <v>753.4393250929061</v>
+        <v>840.106334753995</v>
       </c>
       <c r="E43" t="n">
-        <v>583.6813213436433</v>
+        <v>670.3483310047324</v>
       </c>
       <c r="F43" t="n">
-        <v>406.9742673053995</v>
+        <v>493.6412769664885</v>
       </c>
       <c r="G43" t="n">
-        <v>241.4492629938831</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1362951213261</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="J43" t="n">
         <v>193.3080779523821</v>
@@ -7593,28 +7593,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R43" t="n">
-        <v>2764.748782151796</v>
+        <v>2783.186833469184</v>
       </c>
       <c r="S43" t="n">
-        <v>2673.638669161735</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.042379207902</v>
+        <v>2379.50409172527</v>
       </c>
       <c r="U43" t="n">
-        <v>2149.612993224425</v>
+        <v>2210.339376965005</v>
       </c>
       <c r="V43" t="n">
-        <v>1862.657485094856</v>
+        <v>1923.383868835435</v>
       </c>
       <c r="W43" t="n">
-        <v>1590.631080681148</v>
+        <v>1651.357464421727</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.23932601456</v>
+        <v>1405.965709755139</v>
       </c>
       <c r="Y43" t="n">
-        <v>1117.819655328668</v>
+        <v>1178.546039069247</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2526.697941259893</v>
+        <v>2526.697941259892</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.555468443316</v>
+        <v>2088.555468443315</v>
       </c>
       <c r="D44" t="n">
         <v>1652.64568361776</v>
@@ -7636,13 +7636,13 @@
         <v>1218.870938776055</v>
       </c>
       <c r="F44" t="n">
-        <v>791.0035091852629</v>
+        <v>791.0035091852631</v>
       </c>
       <c r="G44" t="n">
         <v>389.7534168828811</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I44" t="n">
         <v>107.3101658788078</v>
@@ -7651,28 +7651,28 @@
         <v>554.8544931253731</v>
       </c>
       <c r="K44" t="n">
-        <v>984.1390276279537</v>
+        <v>1407.623769373761</v>
       </c>
       <c r="L44" t="n">
-        <v>1006.989406357962</v>
+        <v>2461.458350171565</v>
       </c>
       <c r="M44" t="n">
-        <v>2189.462690702271</v>
+        <v>2486.883799305323</v>
       </c>
       <c r="N44" t="n">
-        <v>3341.030533620949</v>
+        <v>2512.720658787553</v>
       </c>
       <c r="O44" t="n">
-        <v>4345.607213953248</v>
+        <v>3517.297339119852</v>
       </c>
       <c r="P44" t="n">
-        <v>4366.429500754246</v>
+        <v>4366.429500754247</v>
       </c>
       <c r="Q44" t="n">
-        <v>4928.56495693498</v>
+        <v>4928.564956934981</v>
       </c>
       <c r="R44" t="n">
-        <v>5106.814756066306</v>
+        <v>5106.814756066307</v>
       </c>
       <c r="S44" t="n">
         <v>5026.529486406987</v>
@@ -7721,28 +7721,28 @@
         <v>143.1085160916253</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="I45" t="n">
         <v>130.8673959016151</v>
       </c>
       <c r="J45" t="n">
-        <v>307.0570056840226</v>
+        <v>462.7453461364627</v>
       </c>
       <c r="K45" t="n">
-        <v>1000.300931191257</v>
+        <v>475.2557515733201</v>
       </c>
       <c r="L45" t="n">
-        <v>1017.122715181035</v>
+        <v>492.0775355630973</v>
       </c>
       <c r="M45" t="n">
-        <v>1036.752943664812</v>
+        <v>511.7077640468752</v>
       </c>
       <c r="N45" t="n">
-        <v>1056.902725884988</v>
+        <v>531.8575462670509</v>
       </c>
       <c r="O45" t="n">
-        <v>1075.335840036961</v>
+        <v>550.2906604190242</v>
       </c>
       <c r="P45" t="n">
         <v>1090.13003923597</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.5660615356014</v>
+        <v>1123.059039080882</v>
       </c>
       <c r="C46" t="n">
-        <v>780.0043500188264</v>
+        <v>950.4973275641072</v>
       </c>
       <c r="D46" t="n">
-        <v>614.1263572203491</v>
+        <v>784.6193347656299</v>
       </c>
       <c r="E46" t="n">
-        <v>444.3683534710863</v>
+        <v>670.3483310047324</v>
       </c>
       <c r="F46" t="n">
-        <v>267.6612994328425</v>
+        <v>493.6412769664885</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1362951213261</v>
+        <v>328.1162726549721</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1362951213261</v>
+        <v>188.8033047824151</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1362951213261</v>
+        <v>102.1362951213262</v>
       </c>
       <c r="J46" t="n">
         <v>193.3080779523821</v>
       </c>
       <c r="K46" t="n">
-        <v>475.6127596260197</v>
+        <v>475.6127596260198</v>
       </c>
       <c r="L46" t="n">
         <v>903.4792140101248</v>
@@ -7830,28 +7830,28 @@
         <v>2783.186833469184</v>
       </c>
       <c r="R46" t="n">
-        <v>2764.748782151796</v>
+        <v>2783.186833469184</v>
       </c>
       <c r="S46" t="n">
-        <v>2606.662330361715</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="T46" t="n">
-        <v>2361.066040407882</v>
+        <v>2625.100381679104</v>
       </c>
       <c r="U46" t="n">
-        <v>2082.636654424405</v>
+        <v>2346.670995695627</v>
       </c>
       <c r="V46" t="n">
-        <v>1795.681146294836</v>
+        <v>2059.715487566057</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.196105607068</v>
+        <v>1787.689083152349</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.80435094048</v>
+        <v>1542.297328485761</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.384680254589</v>
+        <v>1314.877657799869</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8142,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>236.2898988798406</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.796249040161</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8619,19 +8619,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>673.2161194554089</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>488.8333448079702</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>530.348666280745</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>530.3486662807451</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>154.4200312298683</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>851.8708352536353</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>530.348666280745</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>415.2669407475692</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>851.8708352536357</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>851.8708352536353</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>525.0275602552738</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>530.3486662807449</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>602.6283186683195</v>
       </c>
       <c r="N20" t="n">
-        <v>673.2161194554087</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>675.0319503764999</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>648.705007790179</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9640,19 +9640,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>378.8921886692782</v>
+        <v>851.8708352536357</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9716,13 +9716,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>530.348666280745</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>558.5577499994561</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>69.1731111267477</v>
+        <v>1041.398183906863</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>406.6712187458394</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>530.3486662807446</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>947.1492012388362</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1041.398183906863</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10132,7 +10132,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>530.3486662807447</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>530.3486662807446</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>63.07167968757494</v>
+        <v>1041.398183906863</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>219.8800831153364</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>530.3486662807446</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10591,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1041.398183906863</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>613.500951523321</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>530.3486662807446</v>
       </c>
       <c r="Q36" t="n">
-        <v>533.6232822570032</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>862.7434681086374</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>216.4755097248576</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>338.2364246247707</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>530.3486662807446</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>415.0157072852231</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>491.6294162869508</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>170.5757419331033</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>530.3486662807447</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>415.0157072852231</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1041.398183906865</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>170.5757419331033</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>530.3486662807446</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.62535575071549</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>54.93212998848148</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.1403270542945</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8697542684012</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.9198381938314</v>
       </c>
       <c r="I31" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>66.65603401411158</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>178.4062896531594</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>92.6059500886813</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6450921236423</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>22.42736491913396</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9198381938314</v>
+        <v>72.92698306374362</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.466306155297739</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>41.43602307669101</v>
       </c>
       <c r="H40" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>85.80033956447805</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S40" t="n">
-        <v>92.60595008868121</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S43" t="n">
-        <v>66.3065754120198</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>108.1720245109793</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>54.93212998848155</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>137.9198381938314</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.80033956447805</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.25367080421426</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.1403270542945</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>92.60595008868142</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554406.9205179005</v>
+        <v>554406.9205179004</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>554406.9205179005</v>
+        <v>554406.9205179004</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>552105.0531014375</v>
+        <v>552105.0531014374</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>552105.0531014375</v>
+        <v>552105.0531014374</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>552105.0531014374</v>
+        <v>552105.0531014375</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>552105.0531014374</v>
+        <v>552105.0531014375</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>552105.0531014374</v>
+        <v>552105.0531014375</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>509339.9538958882</v>
       </c>
       <c r="C2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>509339.9538958885</v>
+        <v>509339.9538958878</v>
       </c>
       <c r="F2" t="n">
         <v>509339.9538958878</v>
       </c>
       <c r="G2" t="n">
-        <v>509339.9538958874</v>
+        <v>509339.9538958877</v>
       </c>
       <c r="H2" t="n">
-        <v>509339.9538958874</v>
+        <v>509339.9538958878</v>
       </c>
       <c r="I2" t="n">
-        <v>509339.9538958872</v>
+        <v>509339.9538958883</v>
       </c>
       <c r="J2" t="n">
-        <v>502127.7181809767</v>
+        <v>502127.7181809768</v>
       </c>
       <c r="K2" t="n">
         <v>502127.7181809767</v>
       </c>
       <c r="L2" t="n">
+        <v>502127.7181809769</v>
+      </c>
+      <c r="M2" t="n">
         <v>502127.7181809768</v>
       </c>
-      <c r="M2" t="n">
-        <v>502127.7181809767</v>
-      </c>
       <c r="N2" t="n">
-        <v>502127.7181809769</v>
+        <v>502127.7181809768</v>
       </c>
       <c r="O2" t="n">
         <v>502127.7181809768</v>
       </c>
       <c r="P2" t="n">
-        <v>502127.7181809768</v>
+        <v>502127.7181809769</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>123538.1405171624</v>
+        <v>123538.1405171623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>200495.2107147771</v>
+        <v>200495.2107147772</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230489.5592232715</v>
+        <v>230489.5592232714</v>
       </c>
       <c r="C4" t="n">
-        <v>230489.5592232715</v>
+        <v>230489.5592232714</v>
       </c>
       <c r="D4" t="n">
         <v>230489.5592232714</v>
       </c>
       <c r="E4" t="n">
-        <v>139079.5772940519</v>
+        <v>139079.5772940518</v>
       </c>
       <c r="F4" t="n">
         <v>139079.5772940518</v>
@@ -26441,13 +26441,13 @@
         <v>139079.5772940517</v>
       </c>
       <c r="J4" t="n">
-        <v>130068.4274478794</v>
+        <v>130068.4274478793</v>
       </c>
       <c r="K4" t="n">
         <v>130068.4274478793</v>
       </c>
       <c r="L4" t="n">
-        <v>130068.4274478794</v>
+        <v>130068.4274478793</v>
       </c>
       <c r="M4" t="n">
         <v>130068.4274478794</v>
@@ -26459,7 +26459,7 @@
         <v>130068.4274478793</v>
       </c>
       <c r="P4" t="n">
-        <v>130068.4274478793</v>
+        <v>130068.4274478794</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>76621.96309590536</v>
+        <v>76621.96309590535</v>
       </c>
       <c r="F5" t="n">
-        <v>76621.96309590536</v>
+        <v>76621.96309590535</v>
       </c>
       <c r="G5" t="n">
         <v>76621.96309590535</v>
@@ -26502,16 +26502,16 @@
         <v>78416.72483700697</v>
       </c>
       <c r="M5" t="n">
-        <v>78416.72483700696</v>
+        <v>78416.72483700699</v>
       </c>
       <c r="N5" t="n">
-        <v>78416.72483700697</v>
+        <v>78416.72483700699</v>
       </c>
       <c r="O5" t="n">
-        <v>78416.72483700697</v>
+        <v>78416.72483700699</v>
       </c>
       <c r="P5" t="n">
-        <v>78416.72483700697</v>
+        <v>78416.72483700699</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77234.30587568448</v>
+        <v>77234.30587568443</v>
       </c>
       <c r="C6" t="n">
-        <v>219425.6065353944</v>
+        <v>219425.6065353943</v>
       </c>
       <c r="D6" t="n">
-        <v>219425.6065353944</v>
+        <v>219425.6065353943</v>
       </c>
       <c r="E6" t="n">
-        <v>13575.22154689615</v>
+        <v>13575.22154689551</v>
       </c>
       <c r="F6" t="n">
+        <v>293638.4135059307</v>
+      </c>
+      <c r="G6" t="n">
         <v>293638.4135059306</v>
       </c>
-      <c r="G6" t="n">
-        <v>293638.4135059302</v>
-      </c>
       <c r="H6" t="n">
-        <v>293638.4135059303</v>
+        <v>293638.4135059306</v>
       </c>
       <c r="I6" t="n">
-        <v>293638.4135059302</v>
+        <v>293638.4135059312</v>
       </c>
       <c r="J6" t="n">
-        <v>170104.425378928</v>
+        <v>170085.4458112574</v>
       </c>
       <c r="K6" t="n">
-        <v>293642.5658960904</v>
+        <v>293623.5863284196</v>
       </c>
       <c r="L6" t="n">
-        <v>293642.5658960905</v>
+        <v>293623.5863284197</v>
       </c>
       <c r="M6" t="n">
-        <v>93147.35518131324</v>
+        <v>93128.37561364246</v>
       </c>
       <c r="N6" t="n">
-        <v>293642.5658960905</v>
+        <v>293623.5863284196</v>
       </c>
       <c r="O6" t="n">
-        <v>293642.5658960905</v>
+        <v>293623.5863284196</v>
       </c>
       <c r="P6" t="n">
-        <v>293642.5658960905</v>
+        <v>293623.5863284196</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="F2" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G2" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H2" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I2" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.3825937981242</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="F3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="G3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="H3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="I3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="J3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="K3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="L3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="M3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="N3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="O3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="P3" t="n">
-        <v>36.38259379812422</v>
+        <v>36.38259379812423</v>
       </c>
     </row>
     <row r="4">
@@ -26822,7 +26822,7 @@
         <v>1276.703689016577</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.703689016576</v>
+        <v>1276.703689016577</v>
       </c>
       <c r="N4" t="n">
         <v>1276.703689016577</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.3825937981242</v>
+        <v>36.38259379812423</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>804.5425061988453</v>
+        <v>804.5425061988458</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>373.8132119411596</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.7593439063617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>38.80696979904167</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>79.21543680786439</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27678,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>301.0612843868638</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>196.9558765199561</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>20.36308581377719</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>240.9670984085021</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.5502241698337</v>
+        <v>324.7522468404507</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27918,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>16.24256049760407</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>125.4427446268457</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="C11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="D11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="E11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="F11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="G11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="H11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="T11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="U11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="V11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="W11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="X11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="C13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="D13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="E13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="F13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="G13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="H13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="I13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="J13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="K13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="L13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="M13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="N13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="O13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="P13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="R13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="S13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="T13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="U13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="V13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="W13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="X13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.26826817250222</v>
+        <v>13.26826817250219</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="D14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="D16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="J16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="K16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="L16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="M16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="N16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="O16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="P16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="R16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="S16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.26826817250222</v>
+        <v>13.2682681725022</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="D17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.26826817250217</v>
+        <v>13.26826817250026</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="D19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="J19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="K19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="L19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="M19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="N19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="O19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="P19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="R19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="S19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.26826817250134</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="D20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="D22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="J22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="K22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="L22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="M22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="N22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="O22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="P22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="R22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="S22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.26826817250043</v>
       </c>
       <c r="D23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F23" t="n">
-        <v>13.26826817250134</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="C25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="D25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="E25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="F25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="G25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="H25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="I25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="J25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="K25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="L25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="M25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="N25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="O25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="P25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="R25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="S25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="T25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="U25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="V25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="W25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="X25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.26826817250217</v>
+        <v>13.2682681725022</v>
       </c>
     </row>
     <row r="26">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1462616836105494</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H11" t="n">
-        <v>1.49790246727654</v>
+        <v>1.497902467276541</v>
       </c>
       <c r="I11" t="n">
-        <v>5.638753557395712</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J11" t="n">
-        <v>12.41377756934088</v>
+        <v>12.41377756934089</v>
       </c>
       <c r="K11" t="n">
-        <v>18.60503463657544</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L11" t="n">
-        <v>23.0811906363718</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M11" t="n">
-        <v>25.68227185228091</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N11" t="n">
-        <v>26.09783786083938</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O11" t="n">
-        <v>24.64344824443698</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P11" t="n">
-        <v>21.03261293030154</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79461638599873</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R11" t="n">
-        <v>9.187610483101183</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S11" t="n">
-        <v>3.332938115275399</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6402605200051804</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01170093468884395</v>
+        <v>0.01170093468884396</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07825689986766338</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7557969013534859</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I12" t="n">
-        <v>2.694371333162972</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J12" t="n">
-        <v>7.393560877409373</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K12" t="n">
-        <v>12.63677316854282</v>
+        <v>12.63677316854283</v>
       </c>
       <c r="L12" t="n">
-        <v>16.99170099977489</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M12" t="n">
-        <v>19.82851361997768</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N12" t="n">
-        <v>20.35331537391478</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O12" t="n">
-        <v>18.6193072242155</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P12" t="n">
-        <v>14.94363555455407</v>
+        <v>14.94363555455408</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.989424621703838</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R12" t="n">
-        <v>4.8587924321344</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S12" t="n">
-        <v>1.45358759184015</v>
+        <v>1.453587591840151</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3154302235893974</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U12" t="n">
-        <v>0.005148480254451539</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06560795602940428</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5833143726977948</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I13" t="n">
-        <v>1.973010168593359</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J13" t="n">
-        <v>4.638482491278882</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K13" t="n">
-        <v>7.622451618688968</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L13" t="n">
-        <v>9.754113753680707</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M13" t="n">
-        <v>10.28434532559107</v>
+        <v>10.28434532559108</v>
       </c>
       <c r="N13" t="n">
-        <v>10.03980658039057</v>
+        <v>10.03980658039058</v>
       </c>
       <c r="O13" t="n">
-        <v>9.273386366774346</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P13" t="n">
-        <v>7.934984063774493</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.493771663516753</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R13" t="n">
-        <v>2.949972277467577</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S13" t="n">
-        <v>1.143367742803345</v>
+        <v>1.143367742803346</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2803249030347273</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003578615783422056</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H14" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I14" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J14" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K14" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L14" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M14" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N14" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O14" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P14" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R14" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U14" t="n">
         <v>0.01170093468884396</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I15" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J15" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K15" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L15" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M15" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N15" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O15" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P15" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R15" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S15" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U15" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I16" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J16" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K16" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L16" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M16" t="n">
         <v>10.28434532559108</v>
@@ -32171,25 +32171,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O16" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P16" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R16" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S16" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H17" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I17" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J17" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K17" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L17" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M17" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N17" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O17" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P17" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R17" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U17" t="n">
         <v>0.01170093468884396</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I18" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J18" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K18" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L18" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M18" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N18" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O18" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P18" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R18" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S18" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I19" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J19" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K19" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L19" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M19" t="n">
         <v>10.28434532559108</v>
@@ -32408,25 +32408,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O19" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P19" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R19" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S19" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H20" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I20" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J20" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K20" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L20" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M20" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N20" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O20" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P20" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R20" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U20" t="n">
         <v>0.01170093468884396</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I21" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J21" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K21" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L21" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M21" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N21" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O21" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P21" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R21" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S21" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U21" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I22" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J22" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K22" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L22" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M22" t="n">
         <v>10.28434532559108</v>
@@ -32645,25 +32645,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O22" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P22" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R22" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S22" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H23" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I23" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J23" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K23" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L23" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M23" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N23" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O23" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P23" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R23" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S23" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U23" t="n">
         <v>0.01170093468884396</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I24" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J24" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K24" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L24" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M24" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N24" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O24" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P24" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R24" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S24" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U24" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I25" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J25" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K25" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L25" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M25" t="n">
         <v>10.28434532559108</v>
@@ -32882,25 +32882,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O25" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P25" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R25" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S25" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H26" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I26" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J26" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K26" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L26" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M26" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N26" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O26" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P26" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R26" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U26" t="n">
         <v>0.01170093468884396</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I27" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J27" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K27" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L27" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M27" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N27" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O27" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P27" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R27" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S27" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U27" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I28" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J28" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K28" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L28" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M28" t="n">
         <v>10.28434532559108</v>
@@ -33119,25 +33119,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O28" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P28" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R28" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S28" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H29" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I29" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J29" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K29" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L29" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M29" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N29" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O29" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P29" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R29" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S29" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U29" t="n">
         <v>0.01170093468884396</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I30" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J30" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K30" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L30" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M30" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N30" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O30" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P30" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R30" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S30" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U30" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I31" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J31" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K31" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L31" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M31" t="n">
         <v>10.28434532559108</v>
@@ -33356,25 +33356,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O31" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P31" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R31" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S31" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H32" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I32" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J32" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K32" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L32" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M32" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N32" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O32" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P32" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R32" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S32" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U32" t="n">
         <v>0.01170093468884396</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I33" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J33" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K33" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L33" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M33" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N33" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O33" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P33" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R33" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S33" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U33" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I34" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J34" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K34" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L34" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M34" t="n">
         <v>10.28434532559108</v>
@@ -33593,25 +33593,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O34" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P34" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R34" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S34" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H35" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I35" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J35" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K35" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L35" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M35" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N35" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O35" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P35" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R35" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U35" t="n">
         <v>0.01170093468884396</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I36" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J36" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K36" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L36" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M36" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N36" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O36" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P36" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R36" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S36" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U36" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I37" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J37" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K37" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L37" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M37" t="n">
         <v>10.28434532559108</v>
@@ -33830,25 +33830,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O37" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P37" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R37" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S37" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H38" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I38" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J38" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K38" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L38" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M38" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N38" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O38" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P38" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q38" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R38" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S38" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U38" t="n">
         <v>0.01170093468884396</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I39" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J39" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K39" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L39" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M39" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N39" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O39" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P39" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R39" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S39" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U39" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I40" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J40" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K40" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L40" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M40" t="n">
         <v>10.28434532559108</v>
@@ -34067,25 +34067,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O40" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P40" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R40" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S40" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H41" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I41" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J41" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K41" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L41" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M41" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N41" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O41" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P41" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R41" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S41" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U41" t="n">
         <v>0.01170093468884396</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I42" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J42" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K42" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L42" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M42" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N42" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O42" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P42" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R42" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S42" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U42" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I43" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J43" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K43" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L43" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M43" t="n">
         <v>10.28434532559108</v>
@@ -34304,25 +34304,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O43" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P43" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R43" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S43" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1462616836105495</v>
+        <v>0.1462616836105496</v>
       </c>
       <c r="H44" t="n">
         <v>1.497902467276541</v>
       </c>
       <c r="I44" t="n">
-        <v>5.638753557395716</v>
+        <v>5.638753557395717</v>
       </c>
       <c r="J44" t="n">
         <v>12.41377756934089</v>
       </c>
       <c r="K44" t="n">
-        <v>18.60503463657545</v>
+        <v>18.60503463657546</v>
       </c>
       <c r="L44" t="n">
-        <v>23.08119063637181</v>
+        <v>23.08119063637182</v>
       </c>
       <c r="M44" t="n">
-        <v>25.68227185228092</v>
+        <v>25.68227185228093</v>
       </c>
       <c r="N44" t="n">
-        <v>26.0978378608394</v>
+        <v>26.09783786083941</v>
       </c>
       <c r="O44" t="n">
-        <v>24.64344824443699</v>
+        <v>24.643448244437</v>
       </c>
       <c r="P44" t="n">
-        <v>21.03261293030155</v>
+        <v>21.03261293030156</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.79461638599874</v>
+        <v>15.79461638599875</v>
       </c>
       <c r="R44" t="n">
-        <v>9.187610483101189</v>
+        <v>9.187610483101192</v>
       </c>
       <c r="S44" t="n">
-        <v>3.3329381152754</v>
+        <v>3.332938115275402</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6402605200051809</v>
+        <v>0.6402605200051811</v>
       </c>
       <c r="U44" t="n">
         <v>0.01170093468884396</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07825689986766342</v>
+        <v>0.07825689986766345</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7557969013534863</v>
+        <v>0.7557969013534865</v>
       </c>
       <c r="I45" t="n">
-        <v>2.694371333162973</v>
+        <v>2.694371333162974</v>
       </c>
       <c r="J45" t="n">
-        <v>7.393560877409377</v>
+        <v>7.39356087740938</v>
       </c>
       <c r="K45" t="n">
         <v>12.63677316854283</v>
       </c>
       <c r="L45" t="n">
-        <v>16.9917009997749</v>
+        <v>16.99170099977491</v>
       </c>
       <c r="M45" t="n">
-        <v>19.8285136199777</v>
+        <v>19.82851361997771</v>
       </c>
       <c r="N45" t="n">
-        <v>20.35331537391479</v>
+        <v>20.3533153739148</v>
       </c>
       <c r="O45" t="n">
-        <v>18.61930722421551</v>
+        <v>18.61930722421552</v>
       </c>
       <c r="P45" t="n">
         <v>14.94363555455408</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.989424621703844</v>
+        <v>9.989424621703847</v>
       </c>
       <c r="R45" t="n">
-        <v>4.858792432134402</v>
+        <v>4.858792432134404</v>
       </c>
       <c r="S45" t="n">
         <v>1.453587591840151</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3154302235893976</v>
+        <v>0.3154302235893977</v>
       </c>
       <c r="U45" t="n">
-        <v>0.005148480254451543</v>
+        <v>0.005148480254451544</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06560795602940432</v>
+        <v>0.06560795602940435</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5833143726977952</v>
+        <v>0.5833143726977954</v>
       </c>
       <c r="I46" t="n">
-        <v>1.97301016859336</v>
+        <v>1.973010168593361</v>
       </c>
       <c r="J46" t="n">
-        <v>4.638482491278885</v>
+        <v>4.638482491278888</v>
       </c>
       <c r="K46" t="n">
-        <v>7.622451618688974</v>
+        <v>7.622451618688976</v>
       </c>
       <c r="L46" t="n">
-        <v>9.754113753680713</v>
+        <v>9.754113753680718</v>
       </c>
       <c r="M46" t="n">
         <v>10.28434532559108</v>
@@ -34541,25 +34541,25 @@
         <v>10.03980658039058</v>
       </c>
       <c r="O46" t="n">
-        <v>9.273386366774353</v>
+        <v>9.273386366774357</v>
       </c>
       <c r="P46" t="n">
-        <v>7.934984063774498</v>
+        <v>7.934984063774501</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.493771663516757</v>
+        <v>5.493771663516759</v>
       </c>
       <c r="R46" t="n">
-        <v>2.949972277467579</v>
+        <v>2.94997227746758</v>
       </c>
       <c r="S46" t="n">
         <v>1.143367742803346</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2803249030347275</v>
+        <v>0.2803249030347276</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003578615783422058</v>
+        <v>0.00357861578342206</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34774,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34862,19 +34862,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>236.2898988798406</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.796249040161</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35339,19 +35339,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>117.3049970300783</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.226132078264315</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J11" t="n">
         <v>452.0649770167327</v>
@@ -35415,25 +35415,25 @@
         <v>861.3831073216038</v>
       </c>
       <c r="L11" t="n">
-        <v>696.2973100917807</v>
+        <v>1109.000348467543</v>
       </c>
       <c r="M11" t="n">
-        <v>1194.417458933645</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N11" t="n">
         <v>26.09783786083926</v>
       </c>
       <c r="O11" t="n">
-        <v>24.64344824443697</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P11" t="n">
-        <v>857.7092541761563</v>
+        <v>857.7092541761567</v>
       </c>
       <c r="Q11" t="n">
-        <v>567.8135921017511</v>
+        <v>504.627961193969</v>
       </c>
       <c r="R11" t="n">
-        <v>180.0503021528548</v>
+        <v>9.187610483100798</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>335.2302527624723</v>
       </c>
       <c r="K12" t="n">
-        <v>12.63677316854285</v>
+        <v>542.9854394492879</v>
       </c>
       <c r="L12" t="n">
-        <v>16.99170099977488</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M12" t="n">
         <v>19.82851361997768</v>
       </c>
       <c r="N12" t="n">
-        <v>20.35331537391482</v>
+        <v>20.35331537391471</v>
       </c>
       <c r="O12" t="n">
-        <v>18.6193072242155</v>
+        <v>18.61930722421562</v>
       </c>
       <c r="P12" t="n">
-        <v>545.2923018352991</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q12" t="n">
         <v>556.1903727349115</v>
@@ -35570,25 +35570,25 @@
         <v>105.3609781028618</v>
       </c>
       <c r="K13" t="n">
-        <v>298.4245122872878</v>
+        <v>298.4245122872877</v>
       </c>
       <c r="L13" t="n">
-        <v>445.4566059342244</v>
+        <v>445.4566059342243</v>
       </c>
       <c r="M13" t="n">
-        <v>487.677731862652</v>
+        <v>487.6777318626519</v>
       </c>
       <c r="N13" t="n">
         <v>470.0341385484933</v>
       </c>
       <c r="O13" t="n">
-        <v>446.4499870905709</v>
+        <v>446.4499870905711</v>
       </c>
       <c r="P13" t="n">
         <v>372.2203168527835</v>
       </c>
       <c r="Q13" t="n">
-        <v>188.653731618173</v>
+        <v>188.6537316181725</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J14" t="n">
-        <v>12.41377756934089</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K14" t="n">
         <v>861.3831073216038</v>
       </c>
       <c r="L14" t="n">
-        <v>177.5012218662401</v>
+        <v>23.08119063637173</v>
       </c>
       <c r="M14" t="n">
         <v>25.68227185228102</v>
       </c>
       <c r="N14" t="n">
-        <v>1163.199841331998</v>
+        <v>877.9686731144748</v>
       </c>
       <c r="O14" t="n">
         <v>1014.723919527575</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.694371333162977</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J15" t="n">
         <v>335.2302527624723</v>
       </c>
       <c r="K15" t="n">
-        <v>700.2463894012474</v>
+        <v>542.9854394492879</v>
       </c>
       <c r="L15" t="n">
-        <v>16.99170099977482</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M15" t="n">
         <v>19.82851361997768</v>
@@ -35743,10 +35743,10 @@
         <v>18.61930722421562</v>
       </c>
       <c r="P15" t="n">
-        <v>430.2105763021232</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R15" t="n">
         <v>123.2151339415684</v>
@@ -35825,7 +35825,7 @@
         <v>372.2203168527835</v>
       </c>
       <c r="Q16" t="n">
-        <v>188.653731618173</v>
+        <v>188.6537316181725</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J17" t="n">
         <v>452.0649770167327</v>
@@ -35889,13 +35889,13 @@
         <v>861.3831073216038</v>
       </c>
       <c r="L17" t="n">
-        <v>23.08119063637173</v>
+        <v>874.9520258900075</v>
       </c>
       <c r="M17" t="n">
-        <v>25.68227185228102</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N17" t="n">
-        <v>877.9686731144748</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O17" t="n">
         <v>1014.723919527575</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.694371333162977</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J18" t="n">
-        <v>7.393560877409371</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K18" t="n">
-        <v>12.63677316854283</v>
+        <v>12.63677316854285</v>
       </c>
       <c r="L18" t="n">
-        <v>542.0192612550486</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M18" t="n">
-        <v>19.82851361997768</v>
+        <v>19.82851361997774</v>
       </c>
       <c r="N18" t="n">
         <v>20.35331537391482</v>
       </c>
       <c r="O18" t="n">
-        <v>1042.661337343712</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P18" t="n">
-        <v>14.94363555455402</v>
+        <v>545.292301835299</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R18" t="n">
-        <v>4.858792432134351</v>
+        <v>123.2151339415684</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.3609781028617</v>
+        <v>105.3609781028618</v>
       </c>
       <c r="K19" t="n">
         <v>298.4245122872877</v>
       </c>
       <c r="L19" t="n">
-        <v>445.4566059342244</v>
+        <v>445.4566059342243</v>
       </c>
       <c r="M19" t="n">
         <v>487.6777318626519</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J20" t="n">
         <v>452.0649770167327</v>
@@ -36126,19 +36126,19 @@
         <v>861.3831073216038</v>
       </c>
       <c r="L20" t="n">
-        <v>23.08119063637173</v>
+        <v>1109.000348467543</v>
       </c>
       <c r="M20" t="n">
-        <v>1194.417458933646</v>
+        <v>628.3105905206003</v>
       </c>
       <c r="N20" t="n">
-        <v>699.313957316248</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O20" t="n">
-        <v>24.64344824443697</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P20" t="n">
-        <v>857.7092541761563</v>
+        <v>21.03261293030118</v>
       </c>
       <c r="Q20" t="n">
         <v>567.8135921017511</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>29.02131391948379</v>
+        <v>2.694371333162977</v>
       </c>
       <c r="J21" t="n">
         <v>335.2302527624723</v>
       </c>
       <c r="K21" t="n">
-        <v>12.63677316854285</v>
+        <v>687.6687235450429</v>
       </c>
       <c r="L21" t="n">
-        <v>16.99170099977488</v>
+        <v>16.99170099977482</v>
       </c>
       <c r="M21" t="n">
         <v>19.82851361997768</v>
       </c>
       <c r="N21" t="n">
-        <v>20.35331537391482</v>
+        <v>20.35331537391471</v>
       </c>
       <c r="O21" t="n">
-        <v>18.6193072242155</v>
+        <v>18.61930722421562</v>
       </c>
       <c r="P21" t="n">
-        <v>663.6486433447332</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q21" t="n">
         <v>556.1903727349115</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.3609781028617</v>
+        <v>105.3609781028618</v>
       </c>
       <c r="K22" t="n">
         <v>298.4245122872877</v>
       </c>
       <c r="L22" t="n">
-        <v>445.4566059342244</v>
+        <v>445.4566059342243</v>
       </c>
       <c r="M22" t="n">
         <v>487.6777318626519</v>
@@ -36354,25 +36354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J23" t="n">
         <v>452.0649770167327</v>
       </c>
       <c r="K23" t="n">
-        <v>18.60503463657551</v>
+        <v>861.3831073216038</v>
       </c>
       <c r="L23" t="n">
-        <v>401.97337930565</v>
+        <v>874.9520258900075</v>
       </c>
       <c r="M23" t="n">
-        <v>1194.417458933646</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N23" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O23" t="n">
-        <v>24.64344824443697</v>
+        <v>1014.723919527575</v>
       </c>
       <c r="P23" t="n">
         <v>857.7092541761563</v>
@@ -36436,13 +36436,13 @@
         <v>29.02131391948379</v>
       </c>
       <c r="J24" t="n">
-        <v>7.393560877409385</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K24" t="n">
-        <v>12.63677316854282</v>
+        <v>542.9854394492879</v>
       </c>
       <c r="L24" t="n">
-        <v>981.1765987887686</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M24" t="n">
         <v>19.82851361997768</v>
@@ -36454,13 +36454,13 @@
         <v>18.61930722421562</v>
       </c>
       <c r="P24" t="n">
-        <v>573.5013855540101</v>
+        <v>14.94363555455402</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R24" t="n">
-        <v>4.858792432134351</v>
+        <v>123.2151339415684</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3609781028617</v>
+        <v>105.3609781028618</v>
       </c>
       <c r="K25" t="n">
         <v>298.4245122872877</v>
       </c>
       <c r="L25" t="n">
-        <v>445.4566059342244</v>
+        <v>445.4566059342243</v>
       </c>
       <c r="M25" t="n">
         <v>487.6777318626519</v>
       </c>
       <c r="N25" t="n">
-        <v>470.0341385484933</v>
+        <v>470.0341385484935</v>
       </c>
       <c r="O25" t="n">
-        <v>446.4499870905711</v>
+        <v>446.4499870905709</v>
       </c>
       <c r="P25" t="n">
         <v>372.2203168527835</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J26" t="n">
-        <v>12.41377756934089</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K26" t="n">
-        <v>18.60503463657545</v>
+        <v>861.3831073216038</v>
       </c>
       <c r="L26" t="n">
-        <v>1109.000348467543</v>
+        <v>23.08119063637173</v>
       </c>
       <c r="M26" t="n">
-        <v>1194.417458933646</v>
+        <v>25.68227185228102</v>
       </c>
       <c r="N26" t="n">
-        <v>95.27094898758696</v>
+        <v>1067.496021767702</v>
       </c>
       <c r="O26" t="n">
         <v>1014.723919527574</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.694371333162977</v>
+        <v>29.02131391948377</v>
       </c>
       <c r="J27" t="n">
-        <v>7.393560877409371</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K27" t="n">
-        <v>12.63677316854283</v>
+        <v>12.63677316854285</v>
       </c>
       <c r="L27" t="n">
-        <v>16.99170099977491</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M27" t="n">
-        <v>426.4997323658171</v>
+        <v>19.82851361997774</v>
       </c>
       <c r="N27" t="n">
         <v>20.35331537391482</v>
       </c>
       <c r="O27" t="n">
-        <v>1042.661337343712</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P27" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352988</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R27" t="n">
         <v>123.2151339415686</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J29" t="n">
-        <v>12.41377756934089</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K29" t="n">
         <v>861.3831073216038</v>
       </c>
       <c r="L29" t="n">
-        <v>1109.000348467543</v>
+        <v>23.08119063637173</v>
       </c>
       <c r="M29" t="n">
-        <v>972.831473091117</v>
+        <v>25.68227185228102</v>
       </c>
       <c r="N29" t="n">
-        <v>26.09783786083926</v>
+        <v>1067.496021767703</v>
       </c>
       <c r="O29" t="n">
         <v>1014.723919527575</v>
       </c>
       <c r="P29" t="n">
-        <v>857.7092541761567</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.79461638599878</v>
+        <v>567.8135921017511</v>
       </c>
       <c r="R29" t="n">
         <v>180.0503021528548</v>
@@ -36913,7 +36913,7 @@
         <v>335.2302527624723</v>
       </c>
       <c r="K30" t="n">
-        <v>542.9854394492876</v>
+        <v>12.63677316854285</v>
       </c>
       <c r="L30" t="n">
         <v>16.99170099977493</v>
@@ -36922,13 +36922,13 @@
         <v>19.82851361997768</v>
       </c>
       <c r="N30" t="n">
-        <v>20.35331537391471</v>
+        <v>20.35331537391482</v>
       </c>
       <c r="O30" t="n">
-        <v>18.61930722421562</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P30" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352988</v>
       </c>
       <c r="Q30" t="n">
         <v>556.1903727349115</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J32" t="n">
-        <v>12.41377756934089</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K32" t="n">
         <v>861.3831073216038</v>
       </c>
       <c r="L32" t="n">
-        <v>1109.000348467543</v>
+        <v>23.08119063637173</v>
       </c>
       <c r="M32" t="n">
-        <v>1194.417458933645</v>
+        <v>25.68227185228102</v>
       </c>
       <c r="N32" t="n">
-        <v>89.16951754841421</v>
+        <v>1067.496021767703</v>
       </c>
       <c r="O32" t="n">
         <v>1014.723919527575</v>
       </c>
       <c r="P32" t="n">
-        <v>21.03261293030118</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q32" t="n">
         <v>567.8135921017511</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.694371333162977</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J33" t="n">
-        <v>7.393560877409371</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K33" t="n">
-        <v>12.63677316854283</v>
+        <v>12.63677316854285</v>
       </c>
       <c r="L33" t="n">
-        <v>16.99170099977489</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.661679369977</v>
+        <v>19.82851361997768</v>
       </c>
       <c r="N33" t="n">
-        <v>240.2333984892512</v>
+        <v>20.35331537391482</v>
       </c>
       <c r="O33" t="n">
-        <v>18.61930722421562</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P33" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352988</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R33" t="n">
         <v>123.2151339415686</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J35" t="n">
         <v>452.0649770167327</v>
@@ -37311,19 +37311,19 @@
         <v>861.3831073216038</v>
       </c>
       <c r="L35" t="n">
-        <v>23.08119063637173</v>
+        <v>1109.000348467543</v>
       </c>
       <c r="M35" t="n">
-        <v>1067.080455759144</v>
+        <v>1194.417458933646</v>
       </c>
       <c r="N35" t="n">
         <v>26.09783786083926</v>
       </c>
       <c r="O35" t="n">
-        <v>1014.723919527574</v>
+        <v>24.64344824443697</v>
       </c>
       <c r="P35" t="n">
-        <v>857.7092541761563</v>
+        <v>634.5335644536226</v>
       </c>
       <c r="Q35" t="n">
         <v>567.8135921017511</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.694371333162977</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J36" t="n">
         <v>335.2302527624723</v>
       </c>
       <c r="K36" t="n">
-        <v>700.2463894012474</v>
+        <v>12.63677316854285</v>
       </c>
       <c r="L36" t="n">
-        <v>16.99170099977482</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M36" t="n">
         <v>19.82851361997768</v>
       </c>
       <c r="N36" t="n">
-        <v>20.35331537391471</v>
+        <v>20.35331537391482</v>
       </c>
       <c r="O36" t="n">
-        <v>18.61930722421562</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P36" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352988</v>
       </c>
       <c r="Q36" t="n">
-        <v>543.6127068787071</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R36" t="n">
-        <v>4.858792432134351</v>
+        <v>123.2151339415686</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.09270993035956</v>
+        <v>92.09270993035958</v>
       </c>
       <c r="K37" t="n">
         <v>285.1562441147855</v>
       </c>
       <c r="L37" t="n">
-        <v>432.1883377617223</v>
+        <v>432.1883377617222</v>
       </c>
       <c r="M37" t="n">
         <v>474.4094636901498</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J38" t="n">
-        <v>12.41377756934089</v>
+        <v>452.0649770167327</v>
       </c>
       <c r="K38" t="n">
         <v>861.3831073216038</v>
       </c>
       <c r="L38" t="n">
-        <v>1109.000348467543</v>
+        <v>885.8246587450092</v>
       </c>
       <c r="M38" t="n">
-        <v>1194.417458933645</v>
+        <v>1194.417458933646</v>
       </c>
       <c r="N38" t="n">
         <v>26.09783786083926</v>
       </c>
       <c r="O38" t="n">
-        <v>241.1189579692946</v>
+        <v>24.64344824443697</v>
       </c>
       <c r="P38" t="n">
         <v>857.7092541761563</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.694371333162977</v>
+        <v>29.02131391948379</v>
       </c>
       <c r="J39" t="n">
-        <v>7.393560877409371</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K39" t="n">
-        <v>12.63677316854283</v>
+        <v>12.63677316854285</v>
       </c>
       <c r="L39" t="n">
-        <v>355.2281256245457</v>
+        <v>16.99170099977493</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.661679369977</v>
+        <v>19.82851361997768</v>
       </c>
       <c r="N39" t="n">
-        <v>20.35331537391471</v>
+        <v>20.35331537391482</v>
       </c>
       <c r="O39" t="n">
-        <v>18.61930722421562</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P39" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352988</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.989424621703847</v>
+        <v>556.1903727349115</v>
       </c>
       <c r="R39" t="n">
-        <v>4.858792432134351</v>
+        <v>123.2151339415686</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J41" t="n">
-        <v>452.0649770167327</v>
+        <v>12.41377756934089</v>
       </c>
       <c r="K41" t="n">
-        <v>433.6207419217986</v>
+        <v>18.60503463657547</v>
       </c>
       <c r="L41" t="n">
-        <v>23.08119063637184</v>
+        <v>1109.000348467543</v>
       </c>
       <c r="M41" t="n">
         <v>1194.417458933646</v>
@@ -37800,10 +37800,10 @@
         <v>21.03261293030118</v>
       </c>
       <c r="Q41" t="n">
-        <v>567.8135921017511</v>
+        <v>507.4240326729496</v>
       </c>
       <c r="R41" t="n">
-        <v>180.0503021528548</v>
+        <v>9.187610483100798</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>29.02131391948379</v>
       </c>
       <c r="J42" t="n">
-        <v>177.9693028105127</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K42" t="n">
-        <v>700.2463894012473</v>
+        <v>542.9854394492876</v>
       </c>
       <c r="L42" t="n">
         <v>16.99170099977493</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.226132078264318</v>
+        <v>5.22613207826432</v>
       </c>
       <c r="J44" t="n">
         <v>452.0649770167327</v>
       </c>
       <c r="K44" t="n">
-        <v>433.6207419217986</v>
+        <v>861.3831073216038</v>
       </c>
       <c r="L44" t="n">
-        <v>23.08119063637184</v>
+        <v>1064.479374543236</v>
       </c>
       <c r="M44" t="n">
-        <v>1194.417458933646</v>
+        <v>25.68227185228079</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.199841331998</v>
+        <v>26.09783786083926</v>
       </c>
       <c r="O44" t="n">
         <v>1014.723919527575</v>
       </c>
       <c r="P44" t="n">
-        <v>21.03261293030118</v>
+        <v>857.7092541761563</v>
       </c>
       <c r="Q44" t="n">
         <v>567.8135921017511</v>
@@ -38095,10 +38095,10 @@
         <v>29.02131391948379</v>
       </c>
       <c r="J45" t="n">
-        <v>177.9693028105127</v>
+        <v>335.2302527624723</v>
       </c>
       <c r="K45" t="n">
-        <v>700.2463894012473</v>
+        <v>12.63677316854285</v>
       </c>
       <c r="L45" t="n">
         <v>16.99170099977493</v>
@@ -38107,13 +38107,13 @@
         <v>19.82851361997768</v>
       </c>
       <c r="N45" t="n">
-        <v>20.35331537391471</v>
+        <v>20.35331537391482</v>
       </c>
       <c r="O45" t="n">
-        <v>18.61930722421562</v>
+        <v>18.6193072242155</v>
       </c>
       <c r="P45" t="n">
-        <v>14.94363555455402</v>
+        <v>545.2923018352988</v>
       </c>
       <c r="Q45" t="n">
         <v>556.1903727349115</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.09270993035955</v>
+        <v>92.09270993035958</v>
       </c>
       <c r="K46" t="n">
         <v>285.1562441147855</v>
       </c>
       <c r="L46" t="n">
-        <v>432.1883377617223</v>
+        <v>432.1883377617222</v>
       </c>
       <c r="M46" t="n">
         <v>474.4094636901498</v>
